--- a/linear/out/results_all_tables_linear.xlsx
+++ b/linear/out/results_all_tables_linear.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="with_Lugsail_dimens_5_indep" sheetId="1" r:id="rId1"/>
+    <sheet name="dimens_5_indep" sheetId="1" r:id="rId1"/>
+    <sheet name="dimens_5_toep" sheetId="2" r:id="rId2"/>
+    <sheet name="dimens_5_equiv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="17">
   <si>
     <t>Coverage</t>
   </si>
@@ -155,11 +157,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,9 +466,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V8" sqref="V8:AE22"/>
     </sheetView>
   </sheetViews>
@@ -739,28 +741,28 @@
       <c r="W8" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <v>50000</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="8">
         <v>100000</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="8">
         <v>200000</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="8">
         <v>500000</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="8">
         <v>800000</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="8">
         <v>1000000</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="8">
         <v>5000000</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="8">
         <v>10000000</v>
       </c>
     </row>
@@ -813,28 +815,28 @@
       <c r="W9" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="9">
         <v>0</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="9">
         <v>0</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <v>0</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>0</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>0</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <v>0</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <v>0</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -887,28 +889,28 @@
       <c r="W10" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="9">
         <v>7.8446869999999995E-3</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <v>7.2945279999999998E-3</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <v>6.7675629999999999E-3</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <v>5.9737319999999998E-3</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>5.9467499999999998E-3</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <v>5.5098430000000004E-3</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <v>4.1883129999999999E-3</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <v>3.9058919999999998E-3</v>
       </c>
     </row>
@@ -959,34 +961,34 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="9">
         <v>1.0296698E-3</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <v>1.1479330000000001E-3</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <v>7.0642489999999997E-4</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <v>6.5754530000000004E-4</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <v>8.3941509999999997E-4</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <v>7.1725740000000004E-4</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <v>7.2295580000000001E-4</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <v>8.0219999999999998E-4</v>
       </c>
     </row>
@@ -1037,32 +1039,32 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="10"/>
       <c r="W12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="9">
         <v>5.4594219999999996E-4</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="9">
         <v>3.2348419999999998E-4</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <v>3.7758980000000001E-4</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="9">
         <v>3.6409080000000002E-4</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <v>2.5424939999999999E-4</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <v>4.0824760000000002E-4</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <v>2.4655979999999998E-4</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <v>2.751931E-4</v>
       </c>
     </row>
@@ -1077,32 +1079,32 @@
         <v>16</v>
       </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="8"/>
+      <c r="V13" s="10"/>
       <c r="W13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="9">
         <v>5.4594219999999996E-4</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="9">
         <v>6.1988769999999998E-4</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="9">
         <v>7.0642489999999997E-4</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA13" s="9">
         <v>6.5754530000000004E-4</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <v>4.743382E-4</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>7.1725740000000004E-4</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <v>7.2295580000000001E-4</v>
       </c>
-      <c r="AE13" s="10">
+      <c r="AE13" s="9">
         <v>4.7561609999999997E-4</v>
       </c>
     </row>
@@ -1153,32 +1155,32 @@
         <v>9</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="8"/>
+      <c r="V14" s="10"/>
       <c r="W14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="9">
         <v>5.2163490000000003E-3</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="9">
         <v>5.2660449999999996E-3</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <v>5.1815580000000002E-3</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="9">
         <v>4.7084249999999996E-3</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <v>3.529103E-3</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>4.7895539999999997E-3</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <v>2.7219190000000002E-3</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <v>2.7685959999999999E-3</v>
       </c>
     </row>
@@ -1229,32 +1231,32 @@
         <v>5.5682029999999999E-3</v>
       </c>
       <c r="U15" s="2"/>
-      <c r="V15" s="8"/>
+      <c r="V15" s="10"/>
       <c r="W15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>3.1955500000000001E-3</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>3.2393270000000002E-3</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>2.0606460000000002E-3</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>1.8743950000000001E-3</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>2.1707160000000001E-3</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>1.925361E-3</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <v>1.1855590000000001E-3</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE15" s="9">
         <v>1.227024E-3</v>
       </c>
     </row>
@@ -1305,36 +1307,36 @@
         <v>5.3174379999999999E-3</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="10"/>
       <c r="W16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="9">
         <v>5.2163490000000003E-3</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="9">
         <v>3.2393270000000002E-3</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="9">
         <v>3.2957350000000002E-3</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="9">
         <v>2.8671819999999998E-3</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="9">
         <v>3.529103E-3</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="9">
         <v>3.0533940000000001E-3</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AD16" s="9">
         <v>2.7219190000000002E-3</v>
       </c>
-      <c r="AE16" s="10">
+      <c r="AE16" s="9">
         <v>2.7685959999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <v>200000</v>
       </c>
@@ -1381,38 +1383,38 @@
         <v>5.3282629999999997E-3</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="9">
         <v>1.5461914000000001E-3</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <v>1.7375972999999999E-3</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="9">
         <v>1.0622647000000001E-3</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="9">
         <v>9.8638739999999995E-4</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="9">
         <v>1.2696115000000001E-3</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <v>1.0774654E-3</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <v>1.1044653000000001E-3</v>
       </c>
-      <c r="AE17" s="10">
+      <c r="AE17" s="9">
         <v>1.2347114E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <v>500000</v>
       </c>
@@ -1459,36 +1461,36 @@
         <v>5.0333720000000004E-3</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="8"/>
+      <c r="V18" s="10"/>
       <c r="W18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="9">
         <v>8.1688029999999997E-4</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <v>4.8355099999999998E-4</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <v>5.6462410000000004E-4</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="9">
         <v>5.4428630000000005E-4</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="9">
         <v>3.7991799999999998E-4</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="9">
         <v>6.1405189999999999E-4</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="9">
         <v>3.6882000000000001E-4</v>
       </c>
-      <c r="AE18" s="10">
+      <c r="AE18" s="9">
         <v>4.0983639999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>800000</v>
       </c>
@@ -1535,36 +1537,36 @@
         <v>5.2350169999999998E-3</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="8"/>
+      <c r="V19" s="10"/>
       <c r="W19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="9">
         <v>8.1688029999999997E-4</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>9.297544E-4</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <v>1.0622647000000001E-3</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <v>9.8638739999999995E-4</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <v>7.1468789999999996E-4</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="9">
         <v>1.0774654E-3</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="9">
         <v>1.1044653000000001E-3</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="9">
         <v>7.1951389999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <v>1000000</v>
       </c>
@@ -1611,36 +1613,36 @@
         <v>5.1641719999999999E-3</v>
       </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="8"/>
+      <c r="V20" s="10"/>
       <c r="W20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="9">
         <v>7.1470580000000004E-3</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <v>6.7228019999999999E-3</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <v>6.8308570000000001E-3</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="9">
         <v>6.539998E-3</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="9">
         <v>5.5411319999999998E-3</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="9">
         <v>6.4082230000000002E-3</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AD20" s="9">
         <v>4.3012379999999998E-3</v>
       </c>
-      <c r="AE20" s="10">
+      <c r="AE20" s="9">
         <v>4.3518259999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>5000000</v>
       </c>
@@ -1687,36 +1689,36 @@
         <v>4.9776279999999996E-3</v>
       </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="10"/>
       <c r="W21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="9">
         <v>5.0910340000000004E-3</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="9">
         <v>5.2813319999999997E-3</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <v>3.1475990000000001E-3</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="9">
         <v>2.9162789999999999E-3</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <v>3.3840290000000002E-3</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="9">
         <v>3.0083850000000001E-3</v>
       </c>
-      <c r="AD21" s="10">
+      <c r="AD21" s="9">
         <v>1.85545E-3</v>
       </c>
-      <c r="AE21" s="10">
+      <c r="AE21" s="9">
         <v>1.8981429999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <v>10000000</v>
       </c>
@@ -1763,36 +1765,36 @@
         <v>5.038776E-3</v>
       </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="10"/>
       <c r="W22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X22" s="10">
+      <c r="X22" s="9">
         <v>7.1470580000000004E-3</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="9">
         <v>5.2813319999999997E-3</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="9">
         <v>5.3703149999999996E-3</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AA22" s="9">
         <v>4.5773960000000001E-3</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="9">
         <v>5.5411319999999998E-3</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="9">
         <v>4.837114E-3</v>
       </c>
-      <c r="AD22" s="10">
+      <c r="AD22" s="9">
         <v>4.3012379999999998E-3</v>
       </c>
-      <c r="AE22" s="10">
+      <c r="AE22" s="9">
         <v>4.3518259999999996E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1805,7 +1807,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -1813,7 +1815,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1828,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1886,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>50000</v>
       </c>
@@ -1932,14 +1934,35 @@
       </c>
       <c r="U27" s="6"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>2.3188900000000001E-3</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>2.48358E-3</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>2.6356819999999999E-3</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>2.6146390000000002E-3</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>2.4379179999999999E-3</v>
+      </c>
+      <c r="AD27">
+        <v>2.5718889999999999E-3</v>
+      </c>
+      <c r="AE27">
+        <v>2.1387089999999999E-3</v>
+      </c>
+      <c r="AF27">
+        <v>2.4146850000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <v>100000</v>
       </c>
@@ -1986,16 +2009,37 @@
         <v>2.5204029999999999</v>
       </c>
       <c r="U28" s="6"/>
-      <c r="V28" s="8"/>
+      <c r="V28" s="10"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>5.4753520000000002E-3</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>5.5807720000000003E-3</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>5.5848069999999998E-3</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>5.3945440000000002E-3</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>5.2179720000000004E-3</v>
+      </c>
+      <c r="AD28">
+        <v>5.145335E-3</v>
+      </c>
+      <c r="AE28">
+        <v>4.4232409999999996E-3</v>
+      </c>
+      <c r="AF28">
+        <v>4.3067879999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <v>200000</v>
       </c>
@@ -2042,16 +2086,37 @@
         <v>2.5234839999999998</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="V29" s="8"/>
+      <c r="V29" s="10"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>5.4776709999999999E-3</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>5.0757520000000002E-3</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>5.4124669999999998E-3</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>5.1500870000000002E-3</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>4.5157799999999996E-3</v>
+      </c>
+      <c r="AD29">
+        <v>4.6412729999999996E-3</v>
+      </c>
+      <c r="AE29">
+        <v>3.6993999999999998E-3</v>
+      </c>
+      <c r="AF29">
+        <v>3.4999639999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <v>500000</v>
       </c>
@@ -2098,16 +2163,37 @@
         <v>2.5042249999999999</v>
       </c>
       <c r="U30" s="6"/>
-      <c r="V30" s="8"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>5.4376870000000001E-3</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>4.9065339999999997E-3</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>5.423921E-3</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>5.5807720000000003E-3</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>5.3526190000000003E-3</v>
+      </c>
+      <c r="AD30">
+        <v>5.5036499999999997E-3</v>
+      </c>
+      <c r="AE30">
+        <v>5.5425259999999999E-3</v>
+      </c>
+      <c r="AF30">
+        <v>5.2136409999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <v>800000</v>
       </c>
@@ -2154,16 +2240,37 @@
         <v>2.53783</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="V31" s="8"/>
+      <c r="V31" s="10"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>5.4376870000000001E-3</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>5.5929220000000002E-3</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>5.4124669999999998E-3</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>5.1500870000000002E-3</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>5.3492160000000004E-3</v>
+      </c>
+      <c r="AD31">
+        <v>4.6412729999999996E-3</v>
+      </c>
+      <c r="AE31">
+        <v>3.6993999999999998E-3</v>
+      </c>
+      <c r="AF31">
+        <v>4.1520009999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <v>1000000</v>
       </c>
@@ -2210,16 +2317,37 @@
         <v>2.529474</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="8"/>
+      <c r="V32" s="10"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>5.5016149999999996E-3</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>5.4534040000000002E-3</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>5.4182429999999997E-3</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>5.1309060000000002E-3</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>4.3067879999999998E-3</v>
+      </c>
+      <c r="AD32">
+        <v>5.1357449999999997E-3</v>
+      </c>
+      <c r="AE32">
+        <v>3.5685579999999999E-3</v>
+      </c>
+      <c r="AF32">
+        <v>3.7618679999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <v>5000000</v>
       </c>
@@ -2266,16 +2394,37 @@
         <v>2.5142980000000001</v>
       </c>
       <c r="U33" s="6"/>
-      <c r="V33" s="8"/>
+      <c r="V33" s="10"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>4.9003969999999999E-3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>4.7074049999999996E-3</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>4.316032E-3</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>3.9498229999999999E-3</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>3.786335E-3</v>
+      </c>
+      <c r="AD33">
+        <v>3.7371069999999999E-3</v>
+      </c>
+      <c r="AE33">
+        <v>3.0860000000000002E-3</v>
+      </c>
+      <c r="AF33">
+        <v>3.1028420000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <v>10000000</v>
       </c>
@@ -2321,15 +2470,36 @@
       <c r="S34">
         <v>2.5152510000000001</v>
       </c>
-      <c r="V34" s="8"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-    </row>
-    <row r="35" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="V34" s="10"/>
+      <c r="X34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>5.5016149999999996E-3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>4.7074049999999996E-3</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4.5798310000000004E-3</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>4.1919499999999998E-3</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>4.3067879999999998E-3</v>
+      </c>
+      <c r="AD34">
+        <v>4.0051109999999996E-3</v>
+      </c>
+      <c r="AE34">
+        <v>3.5685579999999999E-3</v>
+      </c>
+      <c r="AF34">
+        <v>3.7618679999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -2339,15 +2509,36 @@
       <c r="P35" t="s">
         <v>16</v>
       </c>
-      <c r="V35" s="8"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V35" s="10"/>
+      <c r="X35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>4.8109270000000004E-3</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>4.1820440000000002E-3</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>4.6261510000000002E-3</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>4.2787620000000002E-3</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>3.582015E-3</v>
+      </c>
+      <c r="AD35">
+        <v>3.5685579999999999E-3</v>
+      </c>
+      <c r="AE35">
+        <v>2.6565120000000002E-3</v>
+      </c>
+      <c r="AF35">
+        <v>2.7967299999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>6</v>
       </c>
@@ -2393,15 +2584,36 @@
       <c r="S36" t="s">
         <v>9</v>
       </c>
-      <c r="V36" s="8"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V36" s="10"/>
+      <c r="X36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>5.5483930000000004E-3</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>5.5565049999999998E-3</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>5.5262480000000001E-3</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>5.287422E-3</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>5.4889099999999996E-3</v>
+      </c>
+      <c r="AD36">
+        <v>4.7428230000000002E-3</v>
+      </c>
+      <c r="AE36">
+        <v>4.8241209999999998E-3</v>
+      </c>
+      <c r="AF36">
+        <v>4.1418779999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <v>50000</v>
       </c>
@@ -2448,16 +2660,37 @@
         <v>7.1470580000000004E-3</v>
       </c>
       <c r="U37" s="2"/>
-      <c r="V37" s="8"/>
+      <c r="V37" s="10"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>5.5483930000000004E-3</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>5.1641719999999999E-3</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>4.6261510000000002E-3</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>4.2787620000000002E-3</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>4.5075849999999997E-3</v>
+      </c>
+      <c r="AD37">
+        <v>3.5685579999999999E-3</v>
+      </c>
+      <c r="AE37">
+        <v>2.6565120000000002E-3</v>
+      </c>
+      <c r="AF37">
+        <v>3.0346679999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <v>100000</v>
       </c>
@@ -2504,16 +2737,37 @@
         <v>5.2813319999999997E-3</v>
       </c>
       <c r="U38" s="2"/>
-      <c r="V38" s="8"/>
+      <c r="V38" s="10"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>5.5682029999999999E-3</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>5.544027E-3</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>5.5056619999999997E-3</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>5.3852459999999998E-3</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>5.2350169999999998E-3</v>
+      </c>
+      <c r="AD38">
+        <v>5.4153669999999999E-3</v>
+      </c>
+      <c r="AE38">
+        <v>4.9776279999999996E-3</v>
+      </c>
+      <c r="AF38">
+        <v>5.038776E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <v>200000</v>
       </c>
@@ -2560,16 +2814,37 @@
         <v>5.3703149999999996E-3</v>
       </c>
       <c r="U39" s="2"/>
-      <c r="V39" s="8"/>
+      <c r="V39" s="10"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>5.2912660000000002E-3</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>5.3174379999999999E-3</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>4.2406939999999997E-3</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>4.0267970000000004E-3</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>4.2598289999999997E-3</v>
+      </c>
+      <c r="AD39">
+        <v>3.9158919999999998E-3</v>
+      </c>
+      <c r="AE39">
+        <v>2.7177680000000002E-3</v>
+      </c>
+      <c r="AF39">
+        <v>3.0690259999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <v>500000</v>
       </c>
@@ -2618,12 +2893,35 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>5.5682029999999999E-3</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>5.3174379999999999E-3</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>5.3282629999999997E-3</v>
+      </c>
+      <c r="AB40">
+        <v>5.0333720000000004E-3</v>
+      </c>
+      <c r="AC40">
+        <v>5.2350169999999998E-3</v>
+      </c>
+      <c r="AD40">
+        <v>5.1641719999999999E-3</v>
+      </c>
+      <c r="AE40">
+        <v>4.9776279999999996E-3</v>
+      </c>
+      <c r="AF40">
+        <v>5.038776E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <v>800000</v>
       </c>
@@ -2677,7 +2975,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="6"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <v>1000000</v>
       </c>
@@ -2731,7 +3029,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="6"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <v>5000000</v>
       </c>
@@ -2785,7 +3083,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="6"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <v>10000000</v>
       </c>
@@ -2839,7 +3137,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="6"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2852,7 +3150,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="6"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -2861,7 +3159,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>15</v>
       </c>
@@ -2876,7 +3174,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3442,7 @@
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="8"/>
+      <c r="W52" s="10"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -3201,7 +3499,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="8"/>
+      <c r="W53" s="10"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
@@ -3258,7 +3556,7 @@
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="8"/>
+      <c r="W54" s="10"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -3315,7 +3613,7 @@
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="8"/>
+      <c r="W55" s="10"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
@@ -3372,7 +3670,7 @@
       </c>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="8"/>
+      <c r="W56" s="10"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
@@ -3393,7 +3691,7 @@
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="8"/>
+      <c r="W57" s="10"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
@@ -3450,7 +3748,7 @@
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="8"/>
+      <c r="W58" s="10"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
@@ -3507,7 +3805,7 @@
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="8"/>
+      <c r="W59" s="10"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
@@ -3564,7 +3862,7 @@
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="8"/>
+      <c r="W60" s="10"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
@@ -3621,7 +3919,7 @@
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="8"/>
+      <c r="W61" s="10"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
@@ -3678,7 +3976,7 @@
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="8"/>
+      <c r="W62" s="10"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
@@ -3735,7 +4033,7 @@
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="8"/>
+      <c r="W63" s="10"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
@@ -3925,7 +4223,7 @@
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
-      <c r="W69" s="8"/>
+      <c r="W69" s="10"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -3946,7 +4244,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="W70" s="8"/>
+      <c r="W70" s="10"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
@@ -3955,7 +4253,7 @@
       <c r="AD70" s="2"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="W71" s="8"/>
+      <c r="W71" s="10"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
@@ -3972,7 +4270,7 @@
       </c>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
-      <c r="W72" s="8"/>
+      <c r="W72" s="10"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -4032,7 +4330,7 @@
       </c>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
-      <c r="W73" s="8"/>
+      <c r="W73" s="10"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -4090,7 +4388,7 @@
       </c>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-      <c r="W74" s="8"/>
+      <c r="W74" s="10"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -4147,7 +4445,7 @@
       </c>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
-      <c r="W75" s="8"/>
+      <c r="W75" s="10"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -4204,7 +4502,7 @@
       </c>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
-      <c r="W76" s="8"/>
+      <c r="W76" s="10"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -4261,7 +4559,7 @@
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
-      <c r="W77" s="8"/>
+      <c r="W77" s="10"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
@@ -4318,7 +4616,7 @@
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-      <c r="W78" s="8"/>
+      <c r="W78" s="10"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -4375,7 +4673,7 @@
       </c>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
-      <c r="W79" s="8"/>
+      <c r="W79" s="10"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
@@ -4432,7 +4730,7 @@
       </c>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-      <c r="W80" s="8"/>
+      <c r="W80" s="10"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
@@ -4762,7 +5060,7 @@
       </c>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
-      <c r="X87" s="8"/>
+      <c r="X87" s="10"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
@@ -4819,7 +5117,7 @@
       </c>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="8"/>
+      <c r="X88" s="10"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
@@ -4877,7 +5175,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
-      <c r="X89" s="8"/>
+      <c r="X89" s="10"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
@@ -4935,7 +5233,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="8"/>
+      <c r="X90" s="10"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
@@ -4993,7 +5291,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
-      <c r="X91" s="8"/>
+      <c r="X91" s="10"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
@@ -5006,7 +5304,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
-      <c r="X92" s="8"/>
+      <c r="X92" s="10"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
@@ -5019,7 +5317,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="8"/>
+      <c r="X93" s="10"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
@@ -5032,7 +5330,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="8"/>
+      <c r="X94" s="10"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
@@ -5045,7 +5343,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="8"/>
+      <c r="X95" s="10"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
@@ -5058,7 +5356,7 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="8"/>
+      <c r="X96" s="10"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
@@ -5071,7 +5369,7 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="8"/>
+      <c r="X97" s="10"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
@@ -5084,7 +5382,7 @@
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
-      <c r="X98" s="8"/>
+      <c r="X98" s="10"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
@@ -5122,7 +5420,7 @@
       <c r="Z100" s="6"/>
     </row>
     <row r="101" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H101" s="8"/>
+      <c r="H101" s="10"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -5137,7 +5435,7 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H102" s="8"/>
+      <c r="H102" s="10"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -5152,7 +5450,7 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H103" s="8"/>
+      <c r="H103" s="10"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -5167,7 +5465,7 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H104" s="8"/>
+      <c r="H104" s="10"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -5176,7 +5474,7 @@
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H105" s="8"/>
+      <c r="H105" s="10"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -5185,7 +5483,7 @@
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H106" s="8"/>
+      <c r="H106" s="10"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -5194,7 +5492,7 @@
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H107" s="8"/>
+      <c r="H107" s="10"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -5203,7 +5501,7 @@
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H108" s="8"/>
+      <c r="H108" s="10"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -5212,7 +5510,7 @@
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H109" s="8"/>
+      <c r="H109" s="10"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -5221,7 +5519,7 @@
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H110" s="8"/>
+      <c r="H110" s="10"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -5230,7 +5528,7 @@
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H111" s="8"/>
+      <c r="H111" s="10"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -5239,7 +5537,7 @@
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="8:31" x14ac:dyDescent="0.25">
-      <c r="H112" s="8"/>
+      <c r="H112" s="10"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -5249,18 +5547,8066 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="W52:W57"/>
-    <mergeCell ref="W58:W63"/>
     <mergeCell ref="H107:H112"/>
     <mergeCell ref="V11:V16"/>
     <mergeCell ref="V17:V22"/>
     <mergeCell ref="V28:V33"/>
     <mergeCell ref="V34:V39"/>
-    <mergeCell ref="W69:W74"/>
-    <mergeCell ref="W75:W80"/>
     <mergeCell ref="X87:X92"/>
     <mergeCell ref="X93:X98"/>
     <mergeCell ref="H101:H106"/>
+    <mergeCell ref="W52:W57"/>
+    <mergeCell ref="W58:W63"/>
+    <mergeCell ref="W69:W74"/>
+    <mergeCell ref="W75:W80"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:AE20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F5">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.621</v>
+      </c>
+      <c r="S5">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.153</v>
+      </c>
+      <c r="J6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.749</v>
+      </c>
+      <c r="M6">
+        <v>0.749</v>
+      </c>
+      <c r="N6">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>100000</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>200000</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>500000</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>800000</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F7">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.79</v>
+      </c>
+      <c r="M7">
+        <v>0.78</v>
+      </c>
+      <c r="N7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F8">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.311</v>
+      </c>
+      <c r="J8">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K8">
+        <v>0.71</v>
+      </c>
+      <c r="L8">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.82</v>
+      </c>
+      <c r="N8">
+        <v>0.74</v>
+      </c>
+      <c r="O8">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.74</v>
+      </c>
+      <c r="Q8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.85</v>
+      </c>
+      <c r="S8">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1.4099087E-2</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1.4543090999999999E-2</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1.2218077000000001E-2</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1.1653382E-2</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>1.0830342E-2</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>1.0500354999999999E-2</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>8.7295659999999994E-3</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>7.8567059999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F9">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.252</v>
+      </c>
+      <c r="J9">
+        <v>0.498</v>
+      </c>
+      <c r="K9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.43</v>
+      </c>
+      <c r="P9">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="Q9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R9">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1.508271E-3</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>1.7890639999999999E-3</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>1.039742E-3</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>1.0448499999999999E-3</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1.437926E-3</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1.2176660000000001E-3</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1.3289840000000001E-3</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>1.507513E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <v>0.94</v>
+      </c>
+      <c r="G10">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="Q10">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="V10" s="10"/>
+      <c r="W10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="9">
+        <v>7.5581520000000003E-4</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>4.5238860000000001E-4</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>5.226842E-4</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>5.2811100000000005E-4</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>3.8212320000000001E-4</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>6.4205589999999997E-4</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3.7071640000000002E-4</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>4.3676979999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F11">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.875</v>
+      </c>
+      <c r="L11">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.875</v>
+      </c>
+      <c r="N11">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>7.5581520000000003E-4</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>9.0498200000000003E-4</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1.039742E-3</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1.0448496E-3</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>7.5857439999999995E-4</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1.2176655999999999E-3</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1.3289837E-3</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>8.2150150000000004E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F12">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="O12">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="P12">
+        <v>0.872</v>
+      </c>
+      <c r="Q12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="S12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="9">
+        <v>9.2810029999999995E-3</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1.0342004E-2</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1.0357231E-2</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>9.6232399999999999E-3</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>7.001536E-3</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>1.0002878999999999E-2</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>6.0128129999999997E-3</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>5.9636400000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="9">
+        <v>5.4914020000000003E-3</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>5.9366899999999997E-3</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>3.5891370000000001E-3</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>3.5770540000000001E-3</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>4.5352910000000003E-3</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>3.9213449999999997E-3</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>2.3439200000000002E-3</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>2.5732699999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="9">
+        <v>9.2810029999999995E-3</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>5.9366899999999997E-3</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>6.3404139999999999E-3</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>5.9717479999999998E-3</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>7.001536E-3</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>6.2245310000000002E-3</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>6.0128129999999997E-3</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>5.9636400000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.7772669999999999E-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.3492160000000004E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.5590270000000002E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.7841159999999997E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.7841159999999997E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.567135E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.2678029999999997E-3</v>
+      </c>
+      <c r="M15">
+        <v>5.567135E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.5036499999999997E-3</v>
+      </c>
+      <c r="O15">
+        <v>5.4456549999999998E-3</v>
+      </c>
+      <c r="P15">
+        <v>5.4456549999999998E-3</v>
+      </c>
+      <c r="Q15">
+        <v>5.5901029999999999E-3</v>
+      </c>
+      <c r="R15">
+        <v>5.4267229999999996E-3</v>
+      </c>
+      <c r="S15">
+        <v>5.5901029999999999E-3</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="9">
+        <v>2.2841649999999999E-3</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>2.7204070000000002E-3</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1.5767800000000001E-3</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>1.586809E-3</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>2.1697639999999998E-3</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>1.833271E-3</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>2.009369E-3</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>2.3154260000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.5501719999999999E-3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.5692470000000003E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.5410019999999997E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.0267970000000004E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5.3659729999999996E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5.4609359999999996E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4.8500929999999998E-3</v>
+      </c>
+      <c r="M16">
+        <v>4.8500929999999998E-3</v>
+      </c>
+      <c r="N16">
+        <v>5.0441490000000004E-3</v>
+      </c>
+      <c r="O16">
+        <v>5.1012640000000003E-3</v>
+      </c>
+      <c r="P16">
+        <v>5.5870470000000004E-3</v>
+      </c>
+      <c r="Q16">
+        <v>5.5552099999999997E-3</v>
+      </c>
+      <c r="R16">
+        <v>5.287422E-3</v>
+      </c>
+      <c r="S16">
+        <v>5.287422E-3</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1.1431973E-3</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>6.8334730000000005E-4</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>7.8911840000000003E-4</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>7.9896079999999998E-4</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>5.771204E-4</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>9.7132200000000005E-4</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>5.6016569999999997E-4</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>6.6306039999999996E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.3911750000000002E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.5692470000000003E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.5901029999999999E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5.0653390000000003E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.5901029999999999E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.397593E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4.5561229999999996E-3</v>
+      </c>
+      <c r="M17">
+        <v>4.6337319999999998E-3</v>
+      </c>
+      <c r="N17">
+        <v>5.2678029999999997E-3</v>
+      </c>
+      <c r="O17">
+        <v>5.5741319999999999E-3</v>
+      </c>
+      <c r="P17">
+        <v>5.2678029999999997E-3</v>
+      </c>
+      <c r="Q17">
+        <v>5.5378850000000002E-3</v>
+      </c>
+      <c r="R17">
+        <v>4.2693210000000004E-3</v>
+      </c>
+      <c r="S17">
+        <v>5.283551E-3</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1.1431970000000001E-3</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>1.3671250000000001E-3</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1.5767800000000001E-3</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>1.586809E-3</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>1.1496970000000001E-3</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>1.833271E-3</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>2.009369E-3</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>1.2412860000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.4608799999999999E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.38837E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.567135E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.1780000000000003E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5.567135E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5.0757520000000002E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.2406939999999997E-3</v>
+      </c>
+      <c r="M18">
+        <v>4.2974959999999996E-3</v>
+      </c>
+      <c r="N18">
+        <v>4.9065339999999997E-3</v>
+      </c>
+      <c r="O18">
+        <v>5.5916129999999996E-3</v>
+      </c>
+      <c r="P18">
+        <v>4.9065339999999997E-3</v>
+      </c>
+      <c r="Q18">
+        <v>5.397593E-3</v>
+      </c>
+      <c r="R18">
+        <v>3.9941769999999998E-3</v>
+      </c>
+      <c r="S18">
+        <v>5.1062779999999997E-3</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1.2436674E-2</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>1.3676951E-2</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>1.3244941999999999E-2</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>1.2902831999999999E-2</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>1.0628198E-2</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>1.3082477E-2</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>9.1722609999999993E-3</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>9.1814110000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.2941799999999998E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.3210729999999999E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.2004850000000004E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.8564990000000002E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5.5929220000000002E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4.3970679999999996E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.9498229999999999E-3</v>
+      </c>
+      <c r="M19">
+        <v>4.3970679999999996E-3</v>
+      </c>
+      <c r="N19">
+        <v>4.2213529999999997E-3</v>
+      </c>
+      <c r="O19">
+        <v>5.5378850000000002E-3</v>
+      </c>
+      <c r="P19">
+        <v>5.2678029999999997E-3</v>
+      </c>
+      <c r="Q19">
+        <v>5.1915750000000004E-3</v>
+      </c>
+      <c r="R19">
+        <v>4.2787620000000002E-3</v>
+      </c>
+      <c r="S19">
+        <v>5.1915750000000004E-3</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" s="9">
+        <v>8.6920000000000001E-3</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>9.2913279999999997E-3</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>5.4421820000000003E-3</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>5.5040089999999998E-3</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>6.9059209999999998E-3</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>5.9841879999999997E-3</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>3.6047679999999999E-3</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>3.9601519999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.6565120000000002E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.1780000000000003E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.1960440000000004E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5.5722460000000003E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.1960440000000004E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4.989027E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3.9044520000000001E-3</v>
+      </c>
+      <c r="M20">
+        <v>4.0799690000000001E-3</v>
+      </c>
+      <c r="N20">
+        <v>4.3434709999999998E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.3820969999999997E-3</v>
+      </c>
+      <c r="P20">
+        <v>4.3434709999999998E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.3423350000000001E-3</v>
+      </c>
+      <c r="R20">
+        <v>4.0482419999999996E-3</v>
+      </c>
+      <c r="S20">
+        <v>5.038776E-3</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="9">
+        <v>1.2436674E-2</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>9.2913279999999997E-3</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>1.0063999000000001E-2</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>9.1815999999999998E-3</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>1.0628198E-2</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>9.6961370000000005E-3</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>9.1722609999999993E-3</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>9.1814110000000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F21">
+        <v>2.2941799999999998E-3</v>
+      </c>
+      <c r="G21">
+        <v>4.4575070000000003E-3</v>
+      </c>
+      <c r="H21">
+        <v>4.2502870000000002E-3</v>
+      </c>
+      <c r="I21">
+        <v>5.5115559999999999E-3</v>
+      </c>
+      <c r="J21">
+        <v>4.2502870000000002E-3</v>
+      </c>
+      <c r="K21">
+        <v>3.6993999999999998E-3</v>
+      </c>
+      <c r="L21">
+        <v>3.5138610000000001E-3</v>
+      </c>
+      <c r="M21">
+        <v>3.6993999999999998E-3</v>
+      </c>
+      <c r="N21">
+        <v>3.2798829999999999E-3</v>
+      </c>
+      <c r="O21">
+        <v>5.4482619999999997E-3</v>
+      </c>
+      <c r="P21">
+        <v>3.2798829999999999E-3</v>
+      </c>
+      <c r="Q21">
+        <v>4.8817859999999999E-3</v>
+      </c>
+      <c r="R21">
+        <v>2.9462780000000001E-3</v>
+      </c>
+      <c r="S21">
+        <v>4.8817859999999999E-3</v>
+      </c>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F22">
+        <v>2.48358E-3</v>
+      </c>
+      <c r="G22">
+        <v>4.0799690000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>3.8105140000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>5.5660450000000004E-3</v>
+      </c>
+      <c r="J22">
+        <v>4.6929759999999997E-3</v>
+      </c>
+      <c r="K22">
+        <v>3.6218769999999999E-3</v>
+      </c>
+      <c r="L22">
+        <v>3.2643770000000002E-3</v>
+      </c>
+      <c r="M22">
+        <v>3.6218769999999999E-3</v>
+      </c>
+      <c r="N22">
+        <v>3.051916E-3</v>
+      </c>
+      <c r="O22">
+        <v>4.948572E-3</v>
+      </c>
+      <c r="P22">
+        <v>3.7371069999999999E-3</v>
+      </c>
+      <c r="Q22">
+        <v>4.9187090000000003E-3</v>
+      </c>
+      <c r="R22">
+        <v>3.1028420000000002E-3</v>
+      </c>
+      <c r="S22">
+        <v>4.9187090000000003E-3</v>
+      </c>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F27">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G27">
+        <v>3.6757409999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.308157</v>
+      </c>
+      <c r="I27">
+        <v>0.78615159999999995</v>
+      </c>
+      <c r="J27">
+        <v>0.78615159999999995</v>
+      </c>
+      <c r="K27">
+        <v>3.4112490000000002</v>
+      </c>
+      <c r="L27">
+        <v>2.750712</v>
+      </c>
+      <c r="M27">
+        <v>3.4112490000000002</v>
+      </c>
+      <c r="N27">
+        <v>1.840743</v>
+      </c>
+      <c r="O27">
+        <v>1.1322619</v>
+      </c>
+      <c r="P27">
+        <v>1.1322620000000001</v>
+      </c>
+      <c r="Q27">
+        <v>3.7027489999999998</v>
+      </c>
+      <c r="R27">
+        <v>3.5597300000000001</v>
+      </c>
+      <c r="S27">
+        <v>3.7027489999999998</v>
+      </c>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F28">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G28">
+        <v>3.9160900000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.6392340000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.60292520000000005</v>
+      </c>
+      <c r="J28">
+        <v>1.0323385</v>
+      </c>
+      <c r="K28">
+        <v>3.6749399999999999</v>
+      </c>
+      <c r="L28">
+        <v>3.0923539999999998</v>
+      </c>
+      <c r="M28">
+        <v>3.0923539999999998</v>
+      </c>
+      <c r="N28">
+        <v>2.2621310000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.8742569</v>
+      </c>
+      <c r="P28">
+        <v>1.466601</v>
+      </c>
+      <c r="Q28">
+        <v>3.931235</v>
+      </c>
+      <c r="R28">
+        <v>3.86294</v>
+      </c>
+      <c r="S28">
+        <v>3.86294</v>
+      </c>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F29">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G29">
+        <v>3.9430619999999998</v>
+      </c>
+      <c r="H29">
+        <v>1.309747</v>
+      </c>
+      <c r="I29">
+        <v>0.79621960000000003</v>
+      </c>
+      <c r="J29">
+        <v>1.3097474</v>
+      </c>
+      <c r="K29">
+        <v>3.8588480000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.7233339999999999</v>
+      </c>
+      <c r="M29">
+        <v>3.371391</v>
+      </c>
+      <c r="N29">
+        <v>1.8306290000000001</v>
+      </c>
+      <c r="O29">
+        <v>1.1414091</v>
+      </c>
+      <c r="P29">
+        <v>1.8306290000000001</v>
+      </c>
+      <c r="Q29">
+        <v>4.0688389999999997</v>
+      </c>
+      <c r="R29">
+        <v>3.5171869999999998</v>
+      </c>
+      <c r="S29">
+        <v>4.082713</v>
+      </c>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F30">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G30">
+        <v>3.9094120000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.5112669999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.94481919999999997</v>
+      </c>
+      <c r="J30">
+        <v>1.5112665000000001</v>
+      </c>
+      <c r="K30">
+        <v>3.841866</v>
+      </c>
+      <c r="L30">
+        <v>2.923162</v>
+      </c>
+      <c r="M30">
+        <v>3.47458</v>
+      </c>
+      <c r="N30">
+        <v>2.0861890000000001</v>
+      </c>
+      <c r="O30">
+        <v>1.3414896000000001</v>
+      </c>
+      <c r="P30">
+        <v>2.0861890000000001</v>
+      </c>
+      <c r="Q30">
+        <v>4.1036960000000002</v>
+      </c>
+      <c r="R30">
+        <v>3.6934330000000002</v>
+      </c>
+      <c r="S30">
+        <v>4.1454319999999996</v>
+      </c>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F31">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G31">
+        <v>3.9161519999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.9535670000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.78931079999999998</v>
+      </c>
+      <c r="J31">
+        <v>1.2938559999999999</v>
+      </c>
+      <c r="K31">
+        <v>3.680634</v>
+      </c>
+      <c r="L31">
+        <v>3.279083</v>
+      </c>
+      <c r="M31">
+        <v>3.680634</v>
+      </c>
+      <c r="N31">
+        <v>2.6274920000000002</v>
+      </c>
+      <c r="O31">
+        <v>1.1286212</v>
+      </c>
+      <c r="P31">
+        <v>1.8039190000000001</v>
+      </c>
+      <c r="Q31">
+        <v>4.1598379999999997</v>
+      </c>
+      <c r="R31">
+        <v>3.9765830000000002</v>
+      </c>
+      <c r="S31">
+        <v>4.1598379999999997</v>
+      </c>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F32">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G32">
+        <v>3.958618</v>
+      </c>
+      <c r="H32">
+        <v>1.836759</v>
+      </c>
+      <c r="I32">
+        <v>1.1988439</v>
+      </c>
+      <c r="J32">
+        <v>1.8367593</v>
+      </c>
+      <c r="K32">
+        <v>3.9222510000000002</v>
+      </c>
+      <c r="L32">
+        <v>3.1888390000000002</v>
+      </c>
+      <c r="M32">
+        <v>3.6289470000000001</v>
+      </c>
+      <c r="N32">
+        <v>2.4862920000000002</v>
+      </c>
+      <c r="O32">
+        <v>1.6789259999999999</v>
+      </c>
+      <c r="P32">
+        <v>2.4862920000000002</v>
+      </c>
+      <c r="Q32">
+        <v>4.1660519999999996</v>
+      </c>
+      <c r="R32">
+        <v>3.8983699999999999</v>
+      </c>
+      <c r="S32">
+        <v>4.1894460000000002</v>
+      </c>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F33">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G33">
+        <v>3.9958960000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.4084889999999999</v>
+      </c>
+      <c r="I33">
+        <v>1.095259</v>
+      </c>
+      <c r="J33">
+        <v>2.4084894000000001</v>
+      </c>
+      <c r="K33">
+        <v>3.7989060000000001</v>
+      </c>
+      <c r="L33">
+        <v>3.0606239999999998</v>
+      </c>
+      <c r="M33">
+        <v>3.7989060000000001</v>
+      </c>
+      <c r="N33">
+        <v>3.129461</v>
+      </c>
+      <c r="O33">
+        <v>1.5399476999999999</v>
+      </c>
+      <c r="P33">
+        <v>3.129461</v>
+      </c>
+      <c r="Q33">
+        <v>4.2440179999999996</v>
+      </c>
+      <c r="R33">
+        <v>3.7459380000000002</v>
+      </c>
+      <c r="S33">
+        <v>4.2440179999999996</v>
+      </c>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F34">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G34">
+        <v>3.9816240000000001</v>
+      </c>
+      <c r="H34">
+        <v>2.7387869999999999</v>
+      </c>
+      <c r="I34">
+        <v>1.3723917000000001</v>
+      </c>
+      <c r="J34">
+        <v>2.0402081999999999</v>
+      </c>
+      <c r="K34">
+        <v>3.8733070000000001</v>
+      </c>
+      <c r="L34">
+        <v>3.297139</v>
+      </c>
+      <c r="M34">
+        <v>3.8733070000000001</v>
+      </c>
+      <c r="N34">
+        <v>3.4555959999999999</v>
+      </c>
+      <c r="O34">
+        <v>1.9015617</v>
+      </c>
+      <c r="P34">
+        <v>2.7179350000000002</v>
+      </c>
+      <c r="Q34">
+        <v>4.2734829999999997</v>
+      </c>
+      <c r="R34">
+        <v>3.8925960000000002</v>
+      </c>
+      <c r="S34">
+        <v>4.2734829999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.4099087E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.508271E-3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.5581520000000003E-4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7.5581520000000003E-4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9.2810029999999995E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5.4914020000000003E-3</v>
+      </c>
+      <c r="M37">
+        <v>9.2810029999999995E-3</v>
+      </c>
+      <c r="N37">
+        <v>2.2841649999999999E-3</v>
+      </c>
+      <c r="O37">
+        <v>1.1431973E-3</v>
+      </c>
+      <c r="P37">
+        <v>1.1431970000000001E-3</v>
+      </c>
+      <c r="Q37">
+        <v>1.2436674E-2</v>
+      </c>
+      <c r="R37">
+        <v>8.6920000000000001E-3</v>
+      </c>
+      <c r="S37">
+        <v>1.2436674E-2</v>
+      </c>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.4543090999999999E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.7890639999999999E-3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4.5238860000000001E-4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>9.0498200000000003E-4</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.0342004E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>5.9366899999999997E-3</v>
+      </c>
+      <c r="M38">
+        <v>5.9366899999999997E-3</v>
+      </c>
+      <c r="N38">
+        <v>2.7204070000000002E-3</v>
+      </c>
+      <c r="O38">
+        <v>6.8334730000000005E-4</v>
+      </c>
+      <c r="P38">
+        <v>1.3671250000000001E-3</v>
+      </c>
+      <c r="Q38">
+        <v>1.3676951E-2</v>
+      </c>
+      <c r="R38">
+        <v>9.2913279999999997E-3</v>
+      </c>
+      <c r="S38">
+        <v>9.2913279999999997E-3</v>
+      </c>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.2218077000000001E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.039742E-3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>5.226842E-4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.039742E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.0357231E-2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3.5891370000000001E-3</v>
+      </c>
+      <c r="M39">
+        <v>6.3404139999999999E-3</v>
+      </c>
+      <c r="N39">
+        <v>1.5767800000000001E-3</v>
+      </c>
+      <c r="O39">
+        <v>7.8911840000000003E-4</v>
+      </c>
+      <c r="P39">
+        <v>1.5767800000000001E-3</v>
+      </c>
+      <c r="Q39">
+        <v>1.3244941999999999E-2</v>
+      </c>
+      <c r="R39">
+        <v>5.4421820000000003E-3</v>
+      </c>
+      <c r="S39">
+        <v>1.0063999000000001E-2</v>
+      </c>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.1653382E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.0448499999999999E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5.2811100000000005E-4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1.0448496E-3</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9.6232399999999999E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3.5770540000000001E-3</v>
+      </c>
+      <c r="M40">
+        <v>5.9717479999999998E-3</v>
+      </c>
+      <c r="N40">
+        <v>1.586809E-3</v>
+      </c>
+      <c r="O40">
+        <v>7.9896079999999998E-4</v>
+      </c>
+      <c r="P40">
+        <v>1.586809E-3</v>
+      </c>
+      <c r="Q40">
+        <v>1.2902831999999999E-2</v>
+      </c>
+      <c r="R40">
+        <v>5.5040089999999998E-3</v>
+      </c>
+      <c r="S40">
+        <v>9.1815999999999998E-3</v>
+      </c>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.0830342E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.437926E-3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3.8212320000000001E-4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>7.5857439999999995E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>7.001536E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4.5352910000000003E-3</v>
+      </c>
+      <c r="M41">
+        <v>7.001536E-3</v>
+      </c>
+      <c r="N41">
+        <v>2.1697639999999998E-3</v>
+      </c>
+      <c r="O41">
+        <v>5.771204E-4</v>
+      </c>
+      <c r="P41">
+        <v>1.1496970000000001E-3</v>
+      </c>
+      <c r="Q41">
+        <v>1.0628198E-2</v>
+      </c>
+      <c r="R41">
+        <v>6.9059209999999998E-3</v>
+      </c>
+      <c r="S41">
+        <v>1.0628198E-2</v>
+      </c>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.0500354999999999E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.2176660000000001E-3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6.4205589999999997E-4</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.2176655999999999E-3</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.0002878999999999E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3.9213449999999997E-3</v>
+      </c>
+      <c r="M42">
+        <v>6.2245310000000002E-3</v>
+      </c>
+      <c r="N42">
+        <v>1.833271E-3</v>
+      </c>
+      <c r="O42">
+        <v>9.7132200000000005E-4</v>
+      </c>
+      <c r="P42">
+        <v>1.833271E-3</v>
+      </c>
+      <c r="Q42">
+        <v>1.3082477E-2</v>
+      </c>
+      <c r="R42">
+        <v>5.9841879999999997E-3</v>
+      </c>
+      <c r="S42">
+        <v>9.6961370000000005E-3</v>
+      </c>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>8.7295659999999994E-3</v>
+      </c>
+      <c r="H43">
+        <v>1.3289840000000001E-3</v>
+      </c>
+      <c r="I43">
+        <v>3.7071640000000002E-4</v>
+      </c>
+      <c r="J43">
+        <v>1.3289837E-3</v>
+      </c>
+      <c r="K43">
+        <v>6.0128129999999997E-3</v>
+      </c>
+      <c r="L43">
+        <v>2.3439200000000002E-3</v>
+      </c>
+      <c r="M43">
+        <v>6.0128129999999997E-3</v>
+      </c>
+      <c r="N43">
+        <v>2.009369E-3</v>
+      </c>
+      <c r="O43">
+        <v>5.6016569999999997E-4</v>
+      </c>
+      <c r="P43">
+        <v>2.009369E-3</v>
+      </c>
+      <c r="Q43">
+        <v>9.1722609999999993E-3</v>
+      </c>
+      <c r="R43">
+        <v>3.6047679999999999E-3</v>
+      </c>
+      <c r="S43">
+        <v>9.1722609999999993E-3</v>
+      </c>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7.8567059999999998E-3</v>
+      </c>
+      <c r="H44">
+        <v>1.507513E-3</v>
+      </c>
+      <c r="I44">
+        <v>4.3676979999999999E-4</v>
+      </c>
+      <c r="J44">
+        <v>8.2150150000000004E-4</v>
+      </c>
+      <c r="K44">
+        <v>5.9636400000000001E-3</v>
+      </c>
+      <c r="L44">
+        <v>2.5732699999999999E-3</v>
+      </c>
+      <c r="M44">
+        <v>5.9636400000000001E-3</v>
+      </c>
+      <c r="N44">
+        <v>2.3154260000000002E-3</v>
+      </c>
+      <c r="O44">
+        <v>6.6306039999999996E-4</v>
+      </c>
+      <c r="P44">
+        <v>1.2412860000000001E-3</v>
+      </c>
+      <c r="Q44">
+        <v>9.1814110000000004E-3</v>
+      </c>
+      <c r="R44">
+        <v>3.9601519999999998E-3</v>
+      </c>
+      <c r="S44">
+        <v>9.1814110000000004E-3</v>
+      </c>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" t="s">
+        <v>9</v>
+      </c>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.57311270000000003</v>
+      </c>
+      <c r="H49">
+        <v>0.50082850000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.32011659999999997</v>
+      </c>
+      <c r="J49">
+        <v>0.32011659999999997</v>
+      </c>
+      <c r="K49">
+        <v>0.75179019999999996</v>
+      </c>
+      <c r="L49">
+        <v>0.80226030000000004</v>
+      </c>
+      <c r="M49">
+        <v>0.75179019999999996</v>
+      </c>
+      <c r="N49">
+        <v>0.67823060000000002</v>
+      </c>
+      <c r="O49">
+        <v>0.45366519999999999</v>
+      </c>
+      <c r="P49">
+        <v>0.45366519999999999</v>
+      </c>
+      <c r="Q49">
+        <v>0.72780409999999995</v>
+      </c>
+      <c r="R49">
+        <v>0.84982709999999995</v>
+      </c>
+      <c r="S49">
+        <v>0.72780409999999995</v>
+      </c>
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0.66000400000000004</v>
+      </c>
+      <c r="H50">
+        <v>0.61438459999999995</v>
+      </c>
+      <c r="I50">
+        <v>0.25355620000000001</v>
+      </c>
+      <c r="J50">
+        <v>0.41663729999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.79221909999999995</v>
+      </c>
+      <c r="L50">
+        <v>0.87773009999999996</v>
+      </c>
+      <c r="M50">
+        <v>0.87773009999999996</v>
+      </c>
+      <c r="N50">
+        <v>0.80630100000000005</v>
+      </c>
+      <c r="O50">
+        <v>0.36404550000000002</v>
+      </c>
+      <c r="P50">
+        <v>0.57818259999999999</v>
+      </c>
+      <c r="Q50">
+        <v>0.76728110000000005</v>
+      </c>
+      <c r="R50">
+        <v>0.88703050000000006</v>
+      </c>
+      <c r="S50">
+        <v>0.88703050000000006</v>
+      </c>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0.73352090000000003</v>
+      </c>
+      <c r="H51">
+        <v>0.52086370000000004</v>
+      </c>
+      <c r="I51">
+        <v>0.33327810000000002</v>
+      </c>
+      <c r="J51">
+        <v>0.52086370000000004</v>
+      </c>
+      <c r="K51">
+        <v>0.8212313</v>
+      </c>
+      <c r="L51">
+        <v>0.88689490000000004</v>
+      </c>
+      <c r="M51">
+        <v>0.93781919999999996</v>
+      </c>
+      <c r="N51">
+        <v>0.705596</v>
+      </c>
+      <c r="O51">
+        <v>0.4709372</v>
+      </c>
+      <c r="P51">
+        <v>0.705596</v>
+      </c>
+      <c r="Q51">
+        <v>0.79216359999999997</v>
+      </c>
+      <c r="R51">
+        <v>1.0161929000000001</v>
+      </c>
+      <c r="S51">
+        <v>0.90547</v>
+      </c>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0.81653589999999998</v>
+      </c>
+      <c r="H52">
+        <v>0.59618420000000005</v>
+      </c>
+      <c r="I52">
+        <v>0.3944165</v>
+      </c>
+      <c r="J52">
+        <v>0.59618420000000005</v>
+      </c>
+      <c r="K52">
+        <v>0.89535960000000003</v>
+      </c>
+      <c r="L52">
+        <v>0.95222810000000002</v>
+      </c>
+      <c r="M52">
+        <v>0.99231630000000004</v>
+      </c>
+      <c r="N52">
+        <v>0.79402799999999996</v>
+      </c>
+      <c r="O52">
+        <v>0.55035469999999997</v>
+      </c>
+      <c r="P52">
+        <v>0.79402799999999996</v>
+      </c>
+      <c r="Q52">
+        <v>0.85025530000000005</v>
+      </c>
+      <c r="R52">
+        <v>1.0755513999999999</v>
+      </c>
+      <c r="S52">
+        <v>0.95160180000000005</v>
+      </c>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0.85492829999999997</v>
+      </c>
+      <c r="H53">
+        <v>0.73826789999999998</v>
+      </c>
+      <c r="I53">
+        <v>0.33531660000000002</v>
+      </c>
+      <c r="J53">
+        <v>0.52552480000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.99589380000000005</v>
+      </c>
+      <c r="L53">
+        <v>1.0160908</v>
+      </c>
+      <c r="M53">
+        <v>0.99589380000000005</v>
+      </c>
+      <c r="N53">
+        <v>0.94386130000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.4734061</v>
+      </c>
+      <c r="P53">
+        <v>0.71318599999999999</v>
+      </c>
+      <c r="Q53">
+        <v>0.91635230000000001</v>
+      </c>
+      <c r="R53">
+        <v>1.0650584999999999</v>
+      </c>
+      <c r="S53">
+        <v>0.91635230000000001</v>
+      </c>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.89036020000000005</v>
+      </c>
+      <c r="H54">
+        <v>0.70526290000000003</v>
+      </c>
+      <c r="I54">
+        <v>0.4922203</v>
+      </c>
+      <c r="J54">
+        <v>0.70526290000000003</v>
+      </c>
+      <c r="K54">
+        <v>0.91199629999999998</v>
+      </c>
+      <c r="L54">
+        <v>1.0142791</v>
+      </c>
+      <c r="M54">
+        <v>1.0273634</v>
+      </c>
+      <c r="N54">
+        <v>0.91221660000000004</v>
+      </c>
+      <c r="O54">
+        <v>0.67313710000000004</v>
+      </c>
+      <c r="P54">
+        <v>0.91221660000000004</v>
+      </c>
+      <c r="Q54">
+        <v>0.86296580000000001</v>
+      </c>
+      <c r="R54">
+        <v>1.0967994000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.96449799999999997</v>
+      </c>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1.0049621</v>
+      </c>
+      <c r="H55">
+        <v>0.88022849999999997</v>
+      </c>
+      <c r="I55">
+        <v>0.45790649999999999</v>
+      </c>
+      <c r="J55">
+        <v>0.88022849999999997</v>
+      </c>
+      <c r="K55">
+        <v>1.0884370999999999</v>
+      </c>
+      <c r="L55">
+        <v>1.0320467</v>
+      </c>
+      <c r="M55">
+        <v>1.0884370999999999</v>
+      </c>
+      <c r="N55">
+        <v>1.0793012</v>
+      </c>
+      <c r="O55">
+        <v>0.6313687</v>
+      </c>
+      <c r="P55">
+        <v>1.0793012</v>
+      </c>
+      <c r="Q55">
+        <v>0.98806879999999997</v>
+      </c>
+      <c r="R55">
+        <v>1.1692587999999999</v>
+      </c>
+      <c r="S55">
+        <v>0.98806879999999997</v>
+      </c>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1.0384986</v>
+      </c>
+      <c r="H56">
+        <v>0.96863250000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.56108190000000002</v>
+      </c>
+      <c r="J56">
+        <v>0.77996220000000005</v>
+      </c>
+      <c r="K56">
+        <v>1.1032972999999999</v>
+      </c>
+      <c r="L56">
+        <v>1.087275</v>
+      </c>
+      <c r="M56">
+        <v>1.1032972999999999</v>
+      </c>
+      <c r="N56">
+        <v>1.1473514</v>
+      </c>
+      <c r="O56">
+        <v>0.75689620000000002</v>
+      </c>
+      <c r="P56">
+        <v>0.99229339999999999</v>
+      </c>
+      <c r="Q56">
+        <v>0.99190829999999997</v>
+      </c>
+      <c r="R56">
+        <v>1.1908859000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.99190829999999997</v>
+      </c>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" t="s">
+        <v>9</v>
+      </c>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E59" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1.7365589999999999E-3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4.6964810000000001E-4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2.5868480000000002E-4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2.5868480000000002E-4</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1.8163980000000001E-3</v>
+      </c>
+      <c r="L59">
+        <v>1.2843707E-3</v>
+      </c>
+      <c r="M59">
+        <v>1.8163980000000001E-3</v>
+      </c>
+      <c r="N59">
+        <v>6.9863290000000001E-4</v>
+      </c>
+      <c r="O59">
+        <v>3.818634E-4</v>
+      </c>
+      <c r="P59">
+        <v>3.818634E-4</v>
+      </c>
+      <c r="Q59">
+        <v>2.0174669999999998E-3</v>
+      </c>
+      <c r="R59" s="2">
+        <v>2.1776891E-3</v>
+      </c>
+      <c r="S59">
+        <v>2.0174669999999998E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1.8541040000000001E-3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5.4740340000000005E-4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1.6613700000000001E-4</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3.0843610000000002E-4</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1.968264E-3</v>
+      </c>
+      <c r="L60">
+        <v>1.4698536999999999E-3</v>
+      </c>
+      <c r="M60">
+        <v>1.469854E-3</v>
+      </c>
+      <c r="N60">
+        <v>8.1830279999999997E-4</v>
+      </c>
+      <c r="O60">
+        <v>2.4616939999999999E-4</v>
+      </c>
+      <c r="P60">
+        <v>4.5689180000000002E-4</v>
+      </c>
+      <c r="Q60">
+        <v>2.128619E-3</v>
+      </c>
+      <c r="R60" s="2">
+        <v>2.4383924999999999E-3</v>
+      </c>
+      <c r="S60">
+        <v>2.4383920000000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E61" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.875275E-3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3.415259E-4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.8837570000000001E-4</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3.415259E-4</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1.870813E-3</v>
+      </c>
+      <c r="L61">
+        <v>9.7577069999999996E-4</v>
+      </c>
+      <c r="M61">
+        <v>1.4422409999999999E-3</v>
+      </c>
+      <c r="N61">
+        <v>5.0626109999999996E-4</v>
+      </c>
+      <c r="O61">
+        <v>2.7918110000000002E-4</v>
+      </c>
+      <c r="P61">
+        <v>5.0626109999999996E-4</v>
+      </c>
+      <c r="Q61">
+        <v>1.9309730000000001E-3</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1.5809257E-3</v>
+      </c>
+      <c r="S61">
+        <v>2.392768E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.7892990000000001E-3</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3.4165749999999999E-4</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.8762E-4</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3.4165749999999999E-4</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1.833627E-3</v>
+      </c>
+      <c r="L62">
+        <v>9.2714830000000003E-4</v>
+      </c>
+      <c r="M62">
+        <v>1.3312129999999999E-3</v>
+      </c>
+      <c r="N62">
+        <v>5.1118219999999996E-4</v>
+      </c>
+      <c r="O62">
+        <v>2.7705470000000002E-4</v>
+      </c>
+      <c r="P62">
+        <v>5.1118219999999996E-4</v>
+      </c>
+      <c r="Q62">
+        <v>1.9995289999999999E-3</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1.4835873000000001E-3</v>
+      </c>
+      <c r="S62">
+        <v>2.2845299999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.812078E-3</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4.4171089999999998E-4</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1.3944120000000001E-4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2.5541589999999997E-4</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1.5307739999999999E-3</v>
+      </c>
+      <c r="L63">
+        <v>1.0744318000000001E-3</v>
+      </c>
+      <c r="M63">
+        <v>1.5307739999999999E-3</v>
+      </c>
+      <c r="N63">
+        <v>6.6195420000000004E-4</v>
+      </c>
+      <c r="O63">
+        <v>2.0579330000000001E-4</v>
+      </c>
+      <c r="P63">
+        <v>3.7962309999999997E-4</v>
+      </c>
+      <c r="Q63">
+        <v>2.305638E-3</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1.7726923000000001E-3</v>
+      </c>
+      <c r="S63">
+        <v>2.305638E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.854374E-3</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.8499539999999998E-4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2.2121010000000001E-4</v>
+      </c>
+      <c r="J64" s="2">
+        <v>3.8499539999999998E-4</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1.8885760000000001E-3</v>
+      </c>
+      <c r="L64">
+        <v>9.7096460000000004E-4</v>
+      </c>
+      <c r="M64">
+        <v>1.421928E-3</v>
+      </c>
+      <c r="N64">
+        <v>5.7363849999999997E-4</v>
+      </c>
+      <c r="O64">
+        <v>3.2778979999999999E-4</v>
+      </c>
+      <c r="P64">
+        <v>5.7363849999999997E-4</v>
+      </c>
+      <c r="Q64">
+        <v>2.1025610000000002E-3</v>
+      </c>
+      <c r="R64" s="6">
+        <v>1.5708223E-3</v>
+      </c>
+      <c r="S64">
+        <v>2.4096679999999998E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1.656451E-3</v>
+      </c>
+      <c r="H65">
+        <v>3.867958E-4</v>
+      </c>
+      <c r="I65">
+        <v>1.3069049999999999E-4</v>
+      </c>
+      <c r="J65">
+        <v>3.867958E-4</v>
+      </c>
+      <c r="K65">
+        <v>1.302592E-3</v>
+      </c>
+      <c r="L65">
+        <v>6.1984340000000005E-4</v>
+      </c>
+      <c r="M65">
+        <v>1.302592E-3</v>
+      </c>
+      <c r="N65">
+        <v>5.8698639999999998E-4</v>
+      </c>
+      <c r="O65">
+        <v>1.9388169999999999E-4</v>
+      </c>
+      <c r="P65">
+        <v>5.8698639999999998E-4</v>
+      </c>
+      <c r="Q65">
+        <v>2.3717360000000002E-3</v>
+      </c>
+      <c r="R65" s="6">
+        <v>9.7049110000000001E-4</v>
+      </c>
+      <c r="S65">
+        <v>2.3717360000000002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1.5514000000000001E-3</v>
+      </c>
+      <c r="H66">
+        <v>4.1375750000000001E-4</v>
+      </c>
+      <c r="I66">
+        <v>1.4544650000000001E-4</v>
+      </c>
+      <c r="J66">
+        <v>2.4999259999999998E-4</v>
+      </c>
+      <c r="K66">
+        <v>1.3649790000000001E-3</v>
+      </c>
+      <c r="L66">
+        <v>6.4431009999999997E-4</v>
+      </c>
+      <c r="M66">
+        <v>1.3649790000000001E-3</v>
+      </c>
+      <c r="N66">
+        <v>6.3557390000000004E-4</v>
+      </c>
+      <c r="O66">
+        <v>2.156033E-4</v>
+      </c>
+      <c r="P66">
+        <v>3.760034E-4</v>
+      </c>
+      <c r="Q66">
+        <v>2.4359410000000001E-3</v>
+      </c>
+      <c r="R66" s="6">
+        <v>1.0177398E-3</v>
+      </c>
+      <c r="S66">
+        <v>2.4359410000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U68" s="6"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+      <c r="P72" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>4</v>
+      </c>
+      <c r="P73" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>7</v>
+      </c>
+      <c r="R73" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73" t="s">
+        <v>9</v>
+      </c>
+      <c r="U73" s="6"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="E74" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.69826860000000002</v>
+      </c>
+      <c r="H74">
+        <v>0.70584009999999997</v>
+      </c>
+      <c r="I74">
+        <v>0.8233838</v>
+      </c>
+      <c r="J74">
+        <v>0.8233838</v>
+      </c>
+      <c r="K74">
+        <v>0.55710970000000004</v>
+      </c>
+      <c r="L74">
+        <v>0.48291410000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.55710970000000004</v>
+      </c>
+      <c r="N74">
+        <v>0.59552369999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.74722350000000004</v>
+      </c>
+      <c r="P74">
+        <v>0.74722350000000004</v>
+      </c>
+      <c r="Q74">
+        <v>0.60964010000000002</v>
+      </c>
+      <c r="R74">
+        <v>0.50672890000000004</v>
+      </c>
+      <c r="S74">
+        <v>0.60964010000000002</v>
+      </c>
+      <c r="U74" s="6"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E75" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.68121750000000003</v>
+      </c>
+      <c r="H75">
+        <v>0.6252548</v>
+      </c>
+      <c r="I75">
+        <v>0.86320019999999997</v>
+      </c>
+      <c r="J75">
+        <v>0.76317789999999996</v>
+      </c>
+      <c r="K75">
+        <v>0.55894500000000003</v>
+      </c>
+      <c r="L75">
+        <v>0.44115349999999998</v>
+      </c>
+      <c r="M75">
+        <v>0.44115349999999998</v>
+      </c>
+      <c r="N75">
+        <v>0.49967529999999999</v>
+      </c>
+      <c r="O75">
+        <v>0.80198530000000001</v>
+      </c>
+      <c r="P75">
+        <v>0.66622179999999998</v>
+      </c>
+      <c r="Q75">
+        <v>0.61647390000000002</v>
+      </c>
+      <c r="R75">
+        <v>0.51472169999999995</v>
+      </c>
+      <c r="S75">
+        <v>0.51472169999999995</v>
+      </c>
+      <c r="U75" s="6"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E76" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.63573979999999997</v>
+      </c>
+      <c r="H76">
+        <v>0.69484349999999995</v>
+      </c>
+      <c r="I76">
+        <v>0.81630320000000001</v>
+      </c>
+      <c r="J76">
+        <v>0.69484349999999995</v>
+      </c>
+      <c r="K76">
+        <v>0.5643975</v>
+      </c>
+      <c r="L76">
+        <v>0.41415600000000002</v>
+      </c>
+      <c r="M76">
+        <v>0.41951840000000001</v>
+      </c>
+      <c r="N76">
+        <v>0.57811049999999997</v>
+      </c>
+      <c r="O76">
+        <v>0.73721610000000004</v>
+      </c>
+      <c r="P76">
+        <v>0.57811049999999997</v>
+      </c>
+      <c r="Q76">
+        <v>0.61593850000000006</v>
+      </c>
+      <c r="R76">
+        <v>0.37903530000000002</v>
+      </c>
+      <c r="S76">
+        <v>0.53303869999999998</v>
+      </c>
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E77" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.57796060000000005</v>
+      </c>
+      <c r="H77">
+        <v>0.64256489999999999</v>
+      </c>
+      <c r="I77">
+        <v>0.77892629999999996</v>
+      </c>
+      <c r="J77">
+        <v>0.64256489999999999</v>
+      </c>
+      <c r="K77">
+        <v>0.51349140000000004</v>
+      </c>
+      <c r="L77">
+        <v>0.36024230000000002</v>
+      </c>
+      <c r="M77">
+        <v>0.38047520000000001</v>
+      </c>
+      <c r="N77">
+        <v>0.51184799999999997</v>
+      </c>
+      <c r="O77">
+        <v>0.68666910000000003</v>
+      </c>
+      <c r="P77">
+        <v>0.51184799999999997</v>
+      </c>
+      <c r="Q77">
+        <v>0.58554620000000002</v>
+      </c>
+      <c r="R77">
+        <v>0.34442430000000002</v>
+      </c>
+      <c r="S77">
+        <v>0.50550110000000004</v>
+      </c>
+      <c r="U77" s="6"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E78" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.55561070000000001</v>
+      </c>
+      <c r="H78">
+        <v>0.5348463</v>
+      </c>
+      <c r="I78">
+        <v>0.81574000000000002</v>
+      </c>
+      <c r="J78">
+        <v>0.6934631</v>
+      </c>
+      <c r="K78">
+        <v>0.4104467</v>
+      </c>
+      <c r="L78">
+        <v>0.32958779999999999</v>
+      </c>
+      <c r="M78">
+        <v>0.4104467</v>
+      </c>
+      <c r="N78">
+        <v>0.38863589999999998</v>
+      </c>
+      <c r="O78">
+        <v>0.7365543</v>
+      </c>
+      <c r="P78">
+        <v>0.57449930000000005</v>
+      </c>
+      <c r="Q78">
+        <v>0.53875720000000005</v>
+      </c>
+      <c r="R78">
+        <v>0.399254</v>
+      </c>
+      <c r="S78">
+        <v>0.53875720000000005</v>
+      </c>
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E79" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.53683789999999998</v>
+      </c>
+      <c r="H79">
+        <v>0.5612644</v>
+      </c>
+      <c r="I79">
+        <v>0.71612169999999997</v>
+      </c>
+      <c r="J79">
+        <v>0.5612644</v>
+      </c>
+      <c r="K79">
+        <v>0.51826510000000003</v>
+      </c>
+      <c r="L79">
+        <v>0.31747540000000002</v>
+      </c>
+      <c r="M79">
+        <v>0.37254009999999999</v>
+      </c>
+      <c r="N79">
+        <v>0.41536689999999998</v>
+      </c>
+      <c r="O79">
+        <v>0.6035315</v>
+      </c>
+      <c r="P79">
+        <v>0.41536689999999998</v>
+      </c>
+      <c r="Q79">
+        <v>0.58827090000000004</v>
+      </c>
+      <c r="R79">
+        <v>0.3549138</v>
+      </c>
+      <c r="S79">
+        <v>0.5099688</v>
+      </c>
+      <c r="U79" s="6"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E80" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.45814369999999999</v>
+      </c>
+      <c r="H80">
+        <v>0.41492519999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.73935580000000001</v>
+      </c>
+      <c r="J80">
+        <v>0.41492519999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.33632299999999998</v>
+      </c>
+      <c r="L80">
+        <v>0.2775821</v>
+      </c>
+      <c r="M80">
+        <v>0.33632299999999998</v>
+      </c>
+      <c r="N80">
+        <v>0.26061210000000001</v>
+      </c>
+      <c r="O80">
+        <v>0.63337449999999995</v>
+      </c>
+      <c r="P80">
+        <v>0.26061210000000001</v>
+      </c>
+      <c r="Q80">
+        <v>0.49198510000000001</v>
+      </c>
+      <c r="R80">
+        <v>0.22797149999999999</v>
+      </c>
+      <c r="S80">
+        <v>0.49198510000000001</v>
+      </c>
+      <c r="U80" s="6"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E81" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.42523290000000002</v>
+      </c>
+      <c r="H81">
+        <v>0.33229110000000001</v>
+      </c>
+      <c r="I81">
+        <v>0.66993769999999997</v>
+      </c>
+      <c r="J81">
+        <v>0.50237390000000004</v>
+      </c>
+      <c r="K81">
+        <v>0.33488509999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.23113549999999999</v>
+      </c>
+      <c r="M81">
+        <v>0.33488509999999999</v>
+      </c>
+      <c r="N81">
+        <v>0.19791629999999999</v>
+      </c>
+      <c r="O81">
+        <v>0.54266020000000004</v>
+      </c>
+      <c r="P81">
+        <v>0.34148689999999998</v>
+      </c>
+      <c r="Q81">
+        <v>0.4979846</v>
+      </c>
+      <c r="R81">
+        <v>0.23219709999999999</v>
+      </c>
+      <c r="S81">
+        <v>0.4979846</v>
+      </c>
+      <c r="U81" s="6"/>
+    </row>
+    <row r="82" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="P82" t="s">
+        <v>16</v>
+      </c>
+      <c r="U82" s="6"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>7</v>
+      </c>
+      <c r="R83" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E84" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1.9892099999999999E-3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3.881105E-4</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2.0492500000000001E-4</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2.0492500000000001E-4</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1.2048028000000001E-3</v>
+      </c>
+      <c r="L84" s="2">
+        <v>9.0115949999999996E-4</v>
+      </c>
+      <c r="M84">
+        <v>1.2048028000000001E-3</v>
+      </c>
+      <c r="N84">
+        <v>5.5907820000000003E-4</v>
+      </c>
+      <c r="O84">
+        <v>3.0494160000000002E-4</v>
+      </c>
+      <c r="P84">
+        <v>3.0494160000000002E-4</v>
+      </c>
+      <c r="Q84">
+        <v>1.69119E-3</v>
+      </c>
+      <c r="R84">
+        <v>1.1465055000000001E-3</v>
+      </c>
+      <c r="S84">
+        <v>1.69119E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E85" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2.1453079999999999E-3</v>
+      </c>
+      <c r="H85" s="2">
+        <v>4.6023679999999999E-4</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1.2683829999999999E-4</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2.4592329999999999E-4</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1.3662661999999999E-3</v>
+      </c>
+      <c r="L85" s="2">
+        <v>9.2802599999999998E-4</v>
+      </c>
+      <c r="M85">
+        <v>9.2802599999999998E-4</v>
+      </c>
+      <c r="N85">
+        <v>6.5379309999999999E-4</v>
+      </c>
+      <c r="O85">
+        <v>1.9017249999999999E-4</v>
+      </c>
+      <c r="P85">
+        <v>3.6439099999999999E-4</v>
+      </c>
+      <c r="Q85">
+        <v>2.0553720000000002E-3</v>
+      </c>
+      <c r="R85">
+        <v>1.2880056E-3</v>
+      </c>
+      <c r="S85">
+        <v>1.288006E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E86" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1.7923349999999999E-3</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.8122029999999999E-4</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.462806E-4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2.8122029999999999E-4</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.4683798E-3</v>
+      </c>
+      <c r="L86" s="2">
+        <v>7.514094E-4</v>
+      </c>
+      <c r="M86">
+        <v>9.2167840000000002E-4</v>
+      </c>
+      <c r="N86">
+        <v>4.1572860000000002E-4</v>
+      </c>
+      <c r="O86">
+        <v>2.184318E-4</v>
+      </c>
+      <c r="P86">
+        <v>4.1572860000000002E-4</v>
+      </c>
+      <c r="Q86">
+        <v>2.1578579999999999E-3</v>
+      </c>
+      <c r="R86">
+        <v>8.7717929999999995E-4</v>
+      </c>
+      <c r="S86">
+        <v>1.4503610000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E87" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.74569E-3</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2.8161849999999998E-4</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1.4752250000000001E-4</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2.8161849999999998E-4</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.3239733999999999E-3</v>
+      </c>
+      <c r="L87" s="2">
+        <v>7.1212629999999999E-4</v>
+      </c>
+      <c r="M87">
+        <v>8.2558230000000005E-4</v>
+      </c>
+      <c r="N87">
+        <v>4.1637640000000001E-4</v>
+      </c>
+      <c r="O87">
+        <v>2.210545E-4</v>
+      </c>
+      <c r="P87">
+        <v>4.1637640000000001E-4</v>
+      </c>
+      <c r="Q87">
+        <v>2.0847169999999998E-3</v>
+      </c>
+      <c r="R87">
+        <v>7.9679550000000005E-4</v>
+      </c>
+      <c r="S87">
+        <v>1.3733440000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E88" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1.596676E-3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3.767884E-4</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1.078582E-4</v>
+      </c>
+      <c r="J88" s="2">
+        <v>2.073768E-4</v>
+      </c>
+      <c r="K88" s="2">
+        <v>9.6251530000000004E-4</v>
+      </c>
+      <c r="L88" s="2">
+        <v>7.1091250000000002E-4</v>
+      </c>
+      <c r="M88">
+        <v>9.6251530000000004E-4</v>
+      </c>
+      <c r="N88">
+        <v>5.343775E-4</v>
+      </c>
+      <c r="O88">
+        <v>1.6191710000000001E-4</v>
+      </c>
+      <c r="P88">
+        <v>3.0865379999999999E-4</v>
+      </c>
+      <c r="Q88">
+        <v>1.6367420000000001E-3</v>
+      </c>
+      <c r="R88">
+        <v>9.9136699999999994E-4</v>
+      </c>
+      <c r="S88">
+        <v>1.6367420000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E89" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1.5614820000000001E-3</v>
+      </c>
+      <c r="H89" s="2">
+        <v>3.2310390000000002E-4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1.7623279999999999E-4</v>
+      </c>
+      <c r="J89" s="2">
+        <v>3.2310390000000002E-4</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.3986975999999999E-3</v>
+      </c>
+      <c r="L89" s="2">
+        <v>6.9010580000000005E-4</v>
+      </c>
+      <c r="M89">
+        <v>8.5852300000000003E-4</v>
+      </c>
+      <c r="N89">
+        <v>4.6806799999999998E-4</v>
+      </c>
+      <c r="O89">
+        <v>2.6297799999999997E-4</v>
+      </c>
+      <c r="P89">
+        <v>4.6806799999999998E-4</v>
+      </c>
+      <c r="Q89">
+        <v>2.157202E-3</v>
+      </c>
+      <c r="R89">
+        <v>8.3894440000000002E-4</v>
+      </c>
+      <c r="S89" s="2">
+        <v>1.467498E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E90" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1.2847920000000001E-3</v>
+      </c>
+      <c r="H90" s="2">
+        <v>3.6098860000000001E-4</v>
+      </c>
+      <c r="I90">
+        <v>1.06152E-4</v>
+      </c>
+      <c r="J90">
+        <v>3.6098860000000001E-4</v>
+      </c>
+      <c r="K90">
+        <v>8.6495419999999999E-4</v>
+      </c>
+      <c r="L90">
+        <v>5.5303890000000004E-4</v>
+      </c>
+      <c r="M90">
+        <v>8.6495419999999999E-4</v>
+      </c>
+      <c r="N90">
+        <v>4.986255E-4</v>
+      </c>
+      <c r="O90">
+        <v>1.596057E-4</v>
+      </c>
+      <c r="P90">
+        <v>4.986255E-4</v>
+      </c>
+      <c r="Q90">
+        <v>1.457397E-3</v>
+      </c>
+      <c r="R90">
+        <v>5.7909509999999999E-4</v>
+      </c>
+      <c r="S90" s="2">
+        <v>1.457397E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E91" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1.166432E-3</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3.968396E-4</v>
+      </c>
+      <c r="I91">
+        <v>1.245323E-4</v>
+      </c>
+      <c r="J91">
+        <v>2.2912949999999999E-4</v>
+      </c>
+      <c r="K91">
+        <v>8.5130299999999998E-4</v>
+      </c>
+      <c r="L91">
+        <v>5.4287490000000003E-4</v>
+      </c>
+      <c r="M91">
+        <v>8.5130299999999998E-4</v>
+      </c>
+      <c r="N91">
+        <v>4.7668990000000001E-4</v>
+      </c>
+      <c r="O91">
+        <v>1.8807249999999999E-4</v>
+      </c>
+      <c r="P91">
+        <v>3.400837E-4</v>
+      </c>
+      <c r="Q91">
+        <v>1.4339719999999999E-3</v>
+      </c>
+      <c r="R91">
+        <v>6.140602E-4</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1.4339719999999999E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U93" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V9:V14"/>
+    <mergeCell ref="V15:V20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE93"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AN96" sqref="A1:AN96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.217</v>
+      </c>
+      <c r="J5">
+        <v>0.217</v>
+      </c>
+      <c r="K5">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.53</v>
+      </c>
+      <c r="R5">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F6">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.156</v>
+      </c>
+      <c r="J6">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.745</v>
+      </c>
+      <c r="M6">
+        <v>0.745</v>
+      </c>
+      <c r="N6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="S6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>100000</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>200000</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>500000</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>800000</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.378</v>
+      </c>
+      <c r="P7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="P8">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1.4462101999999999E-2</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1.3286828000000001E-2</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1.2665318E-2</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1.1100452E-2</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>1.0585677E-2</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>9.4843859999999992E-3</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>8.0848559999999996E-3</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>7.3857250000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F9">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.67</v>
+      </c>
+      <c r="H9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="I9">
+        <v>0.222</v>
+      </c>
+      <c r="J9">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="O9">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.66</v>
+      </c>
+      <c r="Q9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="R9">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1.524648E-3</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>1.7080579999999999E-3</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>1.049342E-3</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>1.0531480000000001E-3</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1.427354E-3</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1.21565E-3</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1.2991490000000001E-3</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>1.366833E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.44</v>
+      </c>
+      <c r="J10">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="N10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q10">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="V10" s="10"/>
+      <c r="W10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="9">
+        <v>7.8465589999999997E-4</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>4.516077E-4</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>5.3693100000000004E-4</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>5.4344180000000003E-4</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>3.8799759999999999E-4</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>6.4172969999999998E-4</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3.780074E-4</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>4.2766769999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F11">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.878</v>
+      </c>
+      <c r="M11">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="P11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>7.8465589999999997E-4</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>8.8725909999999998E-4</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1.0493418999999999E-3</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1.0531481000000001E-3</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>7.5780420000000001E-4</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1.2156497000000001E-3</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1.2991486E-3</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>7.8835649999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F12">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.755</v>
+      </c>
+      <c r="K12">
+        <v>0.879</v>
+      </c>
+      <c r="L12">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.879</v>
+      </c>
+      <c r="N12">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O12">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="P12">
+        <v>0.86</v>
+      </c>
+      <c r="Q12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="S12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="9">
+        <v>9.0573419999999995E-3</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>9.4493440000000001E-3</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>9.7382409999999999E-3</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>9.0347589999999998E-3</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>6.7884620000000003E-3</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>8.8584830000000003E-3</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>5.1155339999999997E-3</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>5.1793669999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="9">
+        <v>5.3311599999999997E-3</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>5.5726639999999997E-3</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>3.5880180000000001E-3</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>3.4441089999999999E-3</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>4.1943390000000001E-3</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>3.6107700000000001E-3</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>2.180768E-3</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>2.1659689999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="9">
+        <v>9.0573419999999995E-3</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>5.5726639999999997E-3</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>6.1610470000000002E-3</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>5.473548E-3</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>6.7884620000000003E-3</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>5.794942E-3</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>5.1155339999999997E-3</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>5.1793669999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.528219E-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.3820969999999997E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.5190880000000001E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.6108709999999999E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.6108709999999999E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.5036499999999997E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.2092839999999998E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5.5036499999999997E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.4889099999999996E-3</v>
+      </c>
+      <c r="O15">
+        <v>5.3626730000000001E-3</v>
+      </c>
+      <c r="P15">
+        <v>5.3626730000000001E-3</v>
+      </c>
+      <c r="Q15">
+        <v>5.5828910000000004E-3</v>
+      </c>
+      <c r="R15">
+        <v>5.283551E-3</v>
+      </c>
+      <c r="S15">
+        <v>5.5828910000000004E-3</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="9">
+        <v>2.2844139999999998E-3</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>2.5757290000000001E-3</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1.5789179999999999E-3</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>1.5865230000000001E-3</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>2.1490950000000002E-3</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>1.829698E-3</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>1.9464529999999999E-3</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>2.0635829999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.3188900000000001E-3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.5848069999999998E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.5722460000000003E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.0588760000000003E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5.2350169999999998E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5.4706420000000004E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4.8755150000000004E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4.8755150000000004E-3</v>
+      </c>
+      <c r="N16">
+        <v>5.0279369999999997E-3</v>
+      </c>
+      <c r="O16">
+        <v>4.936724E-3</v>
+      </c>
+      <c r="P16">
+        <v>5.5922510000000003E-3</v>
+      </c>
+      <c r="Q16">
+        <v>5.5602530000000002E-3</v>
+      </c>
+      <c r="R16">
+        <v>5.2350169999999998E-3</v>
+      </c>
+      <c r="S16">
+        <v>5.2350169999999998E-3</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1.1805021E-3</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>6.7900990000000004E-4</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>8.075367E-4</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>8.1828179999999997E-4</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>5.846728E-4</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>9.6657839999999997E-4</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>5.6634429999999998E-4</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>6.4373200000000005E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.2437770000000002E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.5901029999999999E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.5637960000000002E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.7145629999999997E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.5637960000000002E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.4584489999999998E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4.7704959999999999E-3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4.7636320000000003E-3</v>
+      </c>
+      <c r="N17">
+        <v>5.4456549999999998E-3</v>
+      </c>
+      <c r="O17">
+        <v>5.423921E-3</v>
+      </c>
+      <c r="P17">
+        <v>5.4456549999999998E-3</v>
+      </c>
+      <c r="Q17">
+        <v>5.544027E-3</v>
+      </c>
+      <c r="R17">
+        <v>4.3970679999999996E-3</v>
+      </c>
+      <c r="S17">
+        <v>5.3593470000000004E-3</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1.1805019999999999E-3</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>1.3309229999999999E-3</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1.5789179999999999E-3</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>1.5865230000000001E-3</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>1.140811E-3</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>1.829698E-3</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>1.9464529999999999E-3</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>1.1829410000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.2437770000000002E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.3659729999999996E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.5792480000000002E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.049492E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5.5792480000000002E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5.0333720000000004E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.0375489999999997E-3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4.2310489999999997E-3</v>
+      </c>
+      <c r="N18">
+        <v>5.0441490000000004E-3</v>
+      </c>
+      <c r="O18">
+        <v>5.5702700000000004E-3</v>
+      </c>
+      <c r="P18">
+        <v>5.0441490000000004E-3</v>
+      </c>
+      <c r="Q18">
+        <v>5.3724979999999999E-3</v>
+      </c>
+      <c r="R18">
+        <v>3.7984609999999999E-3</v>
+      </c>
+      <c r="S18">
+        <v>4.9307520000000001E-3</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1.2959399999999999E-2</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>1.260579E-2</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>1.2712337000000001E-2</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>1.2052185999999999E-2</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>1.0527675E-2</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>1.1834841E-2</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>8.0756100000000004E-3</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>8.2685429999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.4146850000000002E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.2597690000000001E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.1870780000000003E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.648775E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5.5853999999999999E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4.449008E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.9272669999999999E-3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4.449008E-3</v>
+      </c>
+      <c r="N19">
+        <v>4.3704809999999998E-3</v>
+      </c>
+      <c r="O19">
+        <v>5.4753520000000002E-3</v>
+      </c>
+      <c r="P19">
+        <v>5.2988749999999998E-3</v>
+      </c>
+      <c r="Q19">
+        <v>5.2475150000000003E-3</v>
+      </c>
+      <c r="R19">
+        <v>4.1520009999999998E-3</v>
+      </c>
+      <c r="S19">
+        <v>5.2475150000000003E-3</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" s="9">
+        <v>8.4552499999999992E-3</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>9.0187960000000008E-3</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>5.4457230000000004E-3</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>5.240906E-3</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>6.3794480000000002E-3</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>5.4496579999999996E-3</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>3.2980259999999999E-3</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>3.2897529999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.2941799999999998E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.0911489999999997E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.287422E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5.5525519999999997E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.287422E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.1062779999999997E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3.972125E-3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4.3252259999999997E-3</v>
+      </c>
+      <c r="N20">
+        <v>4.4058379999999996E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.4508450000000002E-3</v>
+      </c>
+      <c r="P20">
+        <v>4.4058379999999996E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.3492160000000004E-3</v>
+      </c>
+      <c r="R20">
+        <v>3.8344099999999999E-3</v>
+      </c>
+      <c r="S20">
+        <v>5.1500870000000002E-3</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="9">
+        <v>1.2959399999999999E-2</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>9.0187960000000008E-3</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>1.0037855E-2</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>8.7725549999999996E-3</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>1.0527675E-2</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>9.0228259999999994E-3</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>8.0756100000000004E-3</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>8.2685429999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F21">
+        <v>2.2691460000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>4.4058379999999996E-3</v>
+      </c>
+      <c r="H21">
+        <v>4.4993469999999999E-3</v>
+      </c>
+      <c r="I21">
+        <v>5.4403669999999998E-3</v>
+      </c>
+      <c r="J21">
+        <v>4.4993469999999999E-3</v>
+      </c>
+      <c r="K21">
+        <v>3.8224969999999998E-3</v>
+      </c>
+      <c r="L21">
+        <v>3.6609979999999999E-3</v>
+      </c>
+      <c r="M21">
+        <v>3.8224969999999998E-3</v>
+      </c>
+      <c r="N21">
+        <v>3.4577200000000001E-3</v>
+      </c>
+      <c r="O21">
+        <v>5.5330359999999999E-3</v>
+      </c>
+      <c r="P21">
+        <v>3.4577200000000001E-3</v>
+      </c>
+      <c r="Q21">
+        <v>4.9776279999999996E-3</v>
+      </c>
+      <c r="R21">
+        <v>3.152588E-3</v>
+      </c>
+      <c r="S21">
+        <v>4.9776279999999996E-3</v>
+      </c>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F22">
+        <v>2.4608799999999999E-3</v>
+      </c>
+      <c r="G22">
+        <v>4.1111769999999997E-3</v>
+      </c>
+      <c r="H22">
+        <v>4.0159840000000002E-3</v>
+      </c>
+      <c r="I22">
+        <v>5.5682029999999999E-3</v>
+      </c>
+      <c r="J22">
+        <v>4.8109270000000004E-3</v>
+      </c>
+      <c r="K22">
+        <v>3.6480380000000001E-3</v>
+      </c>
+      <c r="L22">
+        <v>3.4577200000000001E-3</v>
+      </c>
+      <c r="M22">
+        <v>3.6480380000000001E-3</v>
+      </c>
+      <c r="N22">
+        <v>3.1361340000000001E-3</v>
+      </c>
+      <c r="O22">
+        <v>4.9776279999999996E-3</v>
+      </c>
+      <c r="P22">
+        <v>3.8813739999999999E-3</v>
+      </c>
+      <c r="Q22">
+        <v>4.9187090000000003E-3</v>
+      </c>
+      <c r="R22">
+        <v>2.891429E-3</v>
+      </c>
+      <c r="S22">
+        <v>4.9187090000000003E-3</v>
+      </c>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F27">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G27">
+        <v>4.0207800000000002</v>
+      </c>
+      <c r="H27">
+        <v>1.3797170000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.81203239999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.81203239999999999</v>
+      </c>
+      <c r="K27">
+        <v>3.713619</v>
+      </c>
+      <c r="L27">
+        <v>2.9759259999999998</v>
+      </c>
+      <c r="M27">
+        <v>3.713619</v>
+      </c>
+      <c r="N27">
+        <v>1.9566730000000001</v>
+      </c>
+      <c r="O27">
+        <v>1.176879</v>
+      </c>
+      <c r="P27">
+        <v>1.176879</v>
+      </c>
+      <c r="Q27">
+        <v>4.0570500000000003</v>
+      </c>
+      <c r="R27">
+        <v>3.8723399999999999</v>
+      </c>
+      <c r="S27">
+        <v>4.0570500000000003</v>
+      </c>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F28">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G28">
+        <v>4.0942829999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.7354860000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.61592420000000003</v>
+      </c>
+      <c r="J28">
+        <v>1.0734618</v>
+      </c>
+      <c r="K28">
+        <v>3.9096289999999998</v>
+      </c>
+      <c r="L28">
+        <v>3.2991730000000001</v>
+      </c>
+      <c r="M28">
+        <v>3.2991730000000001</v>
+      </c>
+      <c r="N28">
+        <v>2.4108100000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.897316</v>
+      </c>
+      <c r="P28">
+        <v>1.5352760000000001</v>
+      </c>
+      <c r="Q28">
+        <v>4.1591969999999998</v>
+      </c>
+      <c r="R28">
+        <v>4.1162890000000001</v>
+      </c>
+      <c r="S28">
+        <v>4.1162890000000001</v>
+      </c>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F29">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G29">
+        <v>4.1983360000000003</v>
+      </c>
+      <c r="H29">
+        <v>1.3769229999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.82182480000000002</v>
+      </c>
+      <c r="J29">
+        <v>1.3769228</v>
+      </c>
+      <c r="K29">
+        <v>4.0449190000000002</v>
+      </c>
+      <c r="L29">
+        <v>2.9165649999999999</v>
+      </c>
+      <c r="M29">
+        <v>3.5835020000000002</v>
+      </c>
+      <c r="N29">
+        <v>1.9380930000000001</v>
+      </c>
+      <c r="O29">
+        <v>1.184941</v>
+      </c>
+      <c r="P29">
+        <v>1.9380930000000001</v>
+      </c>
+      <c r="Q29">
+        <v>4.264621</v>
+      </c>
+      <c r="R29">
+        <v>3.7682910000000001</v>
+      </c>
+      <c r="S29">
+        <v>4.3236800000000004</v>
+      </c>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F30">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G30">
+        <v>4.1784340000000002</v>
+      </c>
+      <c r="H30">
+        <v>1.5941479999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.97961390000000004</v>
+      </c>
+      <c r="J30">
+        <v>1.5941481</v>
+      </c>
+      <c r="K30">
+        <v>4.0716029999999996</v>
+      </c>
+      <c r="L30">
+        <v>3.1055830000000002</v>
+      </c>
+      <c r="M30">
+        <v>3.6434700000000002</v>
+      </c>
+      <c r="N30">
+        <v>2.2151079999999999</v>
+      </c>
+      <c r="O30">
+        <v>1.399402</v>
+      </c>
+      <c r="P30">
+        <v>2.2151079999999999</v>
+      </c>
+      <c r="Q30">
+        <v>4.3632299999999997</v>
+      </c>
+      <c r="R30">
+        <v>3.9133100000000001</v>
+      </c>
+      <c r="S30">
+        <v>4.3119449999999997</v>
+      </c>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F31">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G31">
+        <v>4.1632540000000002</v>
+      </c>
+      <c r="H31">
+        <v>2.0803569999999998</v>
+      </c>
+      <c r="I31">
+        <v>0.81429669999999998</v>
+      </c>
+      <c r="J31">
+        <v>1.3586497</v>
+      </c>
+      <c r="K31">
+        <v>3.8980429999999999</v>
+      </c>
+      <c r="L31">
+        <v>3.4672489999999998</v>
+      </c>
+      <c r="M31">
+        <v>3.8980429999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.8122530000000001</v>
+      </c>
+      <c r="O31">
+        <v>1.17075</v>
+      </c>
+      <c r="P31">
+        <v>1.9073720000000001</v>
+      </c>
+      <c r="Q31">
+        <v>4.4203989999999997</v>
+      </c>
+      <c r="R31">
+        <v>4.1802200000000003</v>
+      </c>
+      <c r="S31">
+        <v>4.4203989999999997</v>
+      </c>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F32">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G32">
+        <v>4.1635270000000002</v>
+      </c>
+      <c r="H32">
+        <v>1.952914</v>
+      </c>
+      <c r="I32">
+        <v>1.2552588</v>
+      </c>
+      <c r="J32">
+        <v>1.9529141999999999</v>
+      </c>
+      <c r="K32">
+        <v>4.1227150000000004</v>
+      </c>
+      <c r="L32">
+        <v>3.3757570000000001</v>
+      </c>
+      <c r="M32">
+        <v>3.8262489999999998</v>
+      </c>
+      <c r="N32">
+        <v>2.6586599999999998</v>
+      </c>
+      <c r="O32">
+        <v>1.769941</v>
+      </c>
+      <c r="P32">
+        <v>2.6586599999999998</v>
+      </c>
+      <c r="Q32">
+        <v>4.357386</v>
+      </c>
+      <c r="R32">
+        <v>4.1021140000000003</v>
+      </c>
+      <c r="S32">
+        <v>4.4242340000000002</v>
+      </c>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F33">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G33">
+        <v>4.1690440000000004</v>
+      </c>
+      <c r="H33">
+        <v>2.5636920000000001</v>
+      </c>
+      <c r="I33">
+        <v>1.1421760000000001</v>
+      </c>
+      <c r="J33">
+        <v>2.5636915</v>
+      </c>
+      <c r="K33">
+        <v>3.9434429999999998</v>
+      </c>
+      <c r="L33">
+        <v>3.2267109999999999</v>
+      </c>
+      <c r="M33">
+        <v>3.9434429999999998</v>
+      </c>
+      <c r="N33">
+        <v>3.3329879999999998</v>
+      </c>
+      <c r="O33">
+        <v>1.61643</v>
+      </c>
+      <c r="P33">
+        <v>3.3329879999999998</v>
+      </c>
+      <c r="Q33">
+        <v>4.4130120000000002</v>
+      </c>
+      <c r="R33">
+        <v>3.9188900000000002</v>
+      </c>
+      <c r="S33">
+        <v>4.4130120000000002</v>
+      </c>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F34">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="G34">
+        <v>4.138744</v>
+      </c>
+      <c r="H34">
+        <v>2.9017210000000002</v>
+      </c>
+      <c r="I34">
+        <v>1.4422128000000001</v>
+      </c>
+      <c r="J34">
+        <v>2.1682787000000001</v>
+      </c>
+      <c r="K34">
+        <v>3.9972889999999999</v>
+      </c>
+      <c r="L34">
+        <v>3.4520460000000002</v>
+      </c>
+      <c r="M34">
+        <v>3.9972889999999999</v>
+      </c>
+      <c r="N34">
+        <v>3.6471140000000002</v>
+      </c>
+      <c r="O34">
+        <v>2.011673</v>
+      </c>
+      <c r="P34">
+        <v>2.899546</v>
+      </c>
+      <c r="Q34">
+        <v>4.4197519999999999</v>
+      </c>
+      <c r="R34">
+        <v>4.039288</v>
+      </c>
+      <c r="S34">
+        <v>4.4197519999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.4462101999999999E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.524648E-3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.8465589999999997E-4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7.8465589999999997E-4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9.0573419999999995E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5.3311599999999997E-3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>9.0573419999999995E-3</v>
+      </c>
+      <c r="N37">
+        <v>2.2844139999999998E-3</v>
+      </c>
+      <c r="O37">
+        <v>1.1805021E-3</v>
+      </c>
+      <c r="P37">
+        <v>1.1805019999999999E-3</v>
+      </c>
+      <c r="Q37">
+        <v>1.2959399999999999E-2</v>
+      </c>
+      <c r="R37">
+        <v>8.4552499999999992E-3</v>
+      </c>
+      <c r="S37">
+        <v>1.2959399999999999E-2</v>
+      </c>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.3286828000000001E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.7080579999999999E-3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4.516077E-4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8.8725909999999998E-4</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9.4493440000000001E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>5.5726639999999997E-3</v>
+      </c>
+      <c r="M38" s="2">
+        <v>5.5726639999999997E-3</v>
+      </c>
+      <c r="N38">
+        <v>2.5757290000000001E-3</v>
+      </c>
+      <c r="O38">
+        <v>6.7900990000000004E-4</v>
+      </c>
+      <c r="P38">
+        <v>1.3309229999999999E-3</v>
+      </c>
+      <c r="Q38">
+        <v>1.260579E-2</v>
+      </c>
+      <c r="R38">
+        <v>9.0187960000000008E-3</v>
+      </c>
+      <c r="S38">
+        <v>9.0187960000000008E-3</v>
+      </c>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.2665318E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.049342E-3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>5.3693100000000004E-4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.0493418999999999E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9.7382409999999999E-3</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3.5880180000000001E-3</v>
+      </c>
+      <c r="M39" s="2">
+        <v>6.1610470000000002E-3</v>
+      </c>
+      <c r="N39">
+        <v>1.5789179999999999E-3</v>
+      </c>
+      <c r="O39">
+        <v>8.075367E-4</v>
+      </c>
+      <c r="P39">
+        <v>1.5789179999999999E-3</v>
+      </c>
+      <c r="Q39">
+        <v>1.2712337000000001E-2</v>
+      </c>
+      <c r="R39">
+        <v>5.4457230000000004E-3</v>
+      </c>
+      <c r="S39">
+        <v>1.0037855E-2</v>
+      </c>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.1100452E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.0531480000000001E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5.4344180000000003E-4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1.0531481000000001E-3</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9.0347589999999998E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3.4441089999999999E-3</v>
+      </c>
+      <c r="M40" s="2">
+        <v>5.473548E-3</v>
+      </c>
+      <c r="N40">
+        <v>1.5865230000000001E-3</v>
+      </c>
+      <c r="O40">
+        <v>8.1828179999999997E-4</v>
+      </c>
+      <c r="P40">
+        <v>1.5865230000000001E-3</v>
+      </c>
+      <c r="Q40">
+        <v>1.2052185999999999E-2</v>
+      </c>
+      <c r="R40">
+        <v>5.240906E-3</v>
+      </c>
+      <c r="S40">
+        <v>8.7725549999999996E-3</v>
+      </c>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.0585677E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.427354E-3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3.8799759999999999E-4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>7.5780420000000001E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>6.7884620000000003E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4.1943390000000001E-3</v>
+      </c>
+      <c r="M41" s="2">
+        <v>6.7884620000000003E-3</v>
+      </c>
+      <c r="N41">
+        <v>2.1490950000000002E-3</v>
+      </c>
+      <c r="O41">
+        <v>5.846728E-4</v>
+      </c>
+      <c r="P41">
+        <v>1.140811E-3</v>
+      </c>
+      <c r="Q41">
+        <v>1.0527675E-2</v>
+      </c>
+      <c r="R41">
+        <v>6.3794480000000002E-3</v>
+      </c>
+      <c r="S41">
+        <v>1.0527675E-2</v>
+      </c>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>9.4843859999999992E-3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.21565E-3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6.4172969999999998E-4</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.2156497000000001E-3</v>
+      </c>
+      <c r="K42" s="2">
+        <v>8.8584830000000003E-3</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3.6107700000000001E-3</v>
+      </c>
+      <c r="M42" s="2">
+        <v>5.794942E-3</v>
+      </c>
+      <c r="N42">
+        <v>1.829698E-3</v>
+      </c>
+      <c r="O42">
+        <v>9.6657839999999997E-4</v>
+      </c>
+      <c r="P42">
+        <v>1.829698E-3</v>
+      </c>
+      <c r="Q42">
+        <v>1.1834841E-2</v>
+      </c>
+      <c r="R42">
+        <v>5.4496579999999996E-3</v>
+      </c>
+      <c r="S42">
+        <v>9.0228259999999994E-3</v>
+      </c>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>8.0848559999999996E-3</v>
+      </c>
+      <c r="H43">
+        <v>1.2991490000000001E-3</v>
+      </c>
+      <c r="I43">
+        <v>3.780074E-4</v>
+      </c>
+      <c r="J43">
+        <v>1.2991486E-3</v>
+      </c>
+      <c r="K43">
+        <v>5.1155339999999997E-3</v>
+      </c>
+      <c r="L43">
+        <v>2.180768E-3</v>
+      </c>
+      <c r="M43">
+        <v>5.1155339999999997E-3</v>
+      </c>
+      <c r="N43">
+        <v>1.9464529999999999E-3</v>
+      </c>
+      <c r="O43">
+        <v>5.6634429999999998E-4</v>
+      </c>
+      <c r="P43">
+        <v>1.9464529999999999E-3</v>
+      </c>
+      <c r="Q43">
+        <v>8.0756100000000004E-3</v>
+      </c>
+      <c r="R43">
+        <v>3.2980259999999999E-3</v>
+      </c>
+      <c r="S43">
+        <v>8.0756100000000004E-3</v>
+      </c>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7.3857250000000001E-3</v>
+      </c>
+      <c r="H44">
+        <v>1.366833E-3</v>
+      </c>
+      <c r="I44">
+        <v>4.2766769999999998E-4</v>
+      </c>
+      <c r="J44">
+        <v>7.8835649999999999E-4</v>
+      </c>
+      <c r="K44">
+        <v>5.1793669999999998E-3</v>
+      </c>
+      <c r="L44">
+        <v>2.1659689999999998E-3</v>
+      </c>
+      <c r="M44">
+        <v>5.1793669999999998E-3</v>
+      </c>
+      <c r="N44">
+        <v>2.0635829999999999E-3</v>
+      </c>
+      <c r="O44">
+        <v>6.4373200000000005E-4</v>
+      </c>
+      <c r="P44">
+        <v>1.1829410000000001E-3</v>
+      </c>
+      <c r="Q44">
+        <v>8.2685429999999997E-3</v>
+      </c>
+      <c r="R44">
+        <v>3.2897529999999999E-3</v>
+      </c>
+      <c r="S44">
+        <v>8.2685429999999997E-3</v>
+      </c>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" t="s">
+        <v>9</v>
+      </c>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.62949809999999995</v>
+      </c>
+      <c r="H49">
+        <v>0.51406180000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.32343699999999997</v>
+      </c>
+      <c r="J49">
+        <v>0.32343699999999997</v>
+      </c>
+      <c r="K49">
+        <v>0.83087650000000002</v>
+      </c>
+      <c r="L49">
+        <v>0.86662530000000004</v>
+      </c>
+      <c r="M49">
+        <v>0.83087650000000002</v>
+      </c>
+      <c r="N49">
+        <v>0.70026650000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.4595226</v>
+      </c>
+      <c r="P49">
+        <v>0.4595226</v>
+      </c>
+      <c r="Q49">
+        <v>0.811446</v>
+      </c>
+      <c r="R49">
+        <v>0.94675640000000005</v>
+      </c>
+      <c r="S49">
+        <v>0.811446</v>
+      </c>
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0.72612200000000005</v>
+      </c>
+      <c r="H50">
+        <v>0.63784149999999995</v>
+      </c>
+      <c r="I50">
+        <v>0.25520579999999998</v>
+      </c>
+      <c r="J50">
+        <v>0.4243538</v>
+      </c>
+      <c r="K50">
+        <v>0.86138349999999997</v>
+      </c>
+      <c r="L50">
+        <v>0.95588050000000002</v>
+      </c>
+      <c r="M50">
+        <v>0.95588050000000002</v>
+      </c>
+      <c r="N50">
+        <v>0.84389150000000002</v>
+      </c>
+      <c r="O50">
+        <v>0.36706569999999999</v>
+      </c>
+      <c r="P50">
+        <v>0.59120980000000001</v>
+      </c>
+      <c r="Q50">
+        <v>0.83909069999999997</v>
+      </c>
+      <c r="R50">
+        <v>0.99420929999999996</v>
+      </c>
+      <c r="S50">
+        <v>0.99420929999999996</v>
+      </c>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0.81073300000000004</v>
+      </c>
+      <c r="H51">
+        <v>0.53571880000000005</v>
+      </c>
+      <c r="I51">
+        <v>0.33794279999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.53571880000000005</v>
+      </c>
+      <c r="K51">
+        <v>0.89119110000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.95658200000000004</v>
+      </c>
+      <c r="M51">
+        <v>1.0206573000000001</v>
+      </c>
+      <c r="N51">
+        <v>0.72932490000000005</v>
+      </c>
+      <c r="O51">
+        <v>0.4787402</v>
+      </c>
+      <c r="P51">
+        <v>0.72932490000000005</v>
+      </c>
+      <c r="Q51">
+        <v>0.86716130000000002</v>
+      </c>
+      <c r="R51">
+        <v>1.1194991999999999</v>
+      </c>
+      <c r="S51">
+        <v>0.99359200000000003</v>
+      </c>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0.91339020000000004</v>
+      </c>
+      <c r="H52">
+        <v>0.61749699999999996</v>
+      </c>
+      <c r="I52">
+        <v>0.40179720000000002</v>
+      </c>
+      <c r="J52">
+        <v>0.61749699999999996</v>
+      </c>
+      <c r="K52">
+        <v>0.98935740000000005</v>
+      </c>
+      <c r="L52">
+        <v>1.0327052000000001</v>
+      </c>
+      <c r="M52">
+        <v>1.0854490000000001</v>
+      </c>
+      <c r="N52">
+        <v>0.82776550000000004</v>
+      </c>
+      <c r="O52">
+        <v>0.562249</v>
+      </c>
+      <c r="P52">
+        <v>0.82776550000000004</v>
+      </c>
+      <c r="Q52">
+        <v>0.94095600000000001</v>
+      </c>
+      <c r="R52">
+        <v>1.1874404000000001</v>
+      </c>
+      <c r="S52">
+        <v>1.0576198999999999</v>
+      </c>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0.95676570000000005</v>
+      </c>
+      <c r="H53">
+        <v>0.77695250000000005</v>
+      </c>
+      <c r="I53">
+        <v>0.34046219999999999</v>
+      </c>
+      <c r="J53">
+        <v>0.54093469999999999</v>
+      </c>
+      <c r="K53">
+        <v>1.0973899</v>
+      </c>
+      <c r="L53">
+        <v>1.1107313000000001</v>
+      </c>
+      <c r="M53">
+        <v>1.0973899</v>
+      </c>
+      <c r="N53">
+        <v>1.0044016</v>
+      </c>
+      <c r="O53">
+        <v>0.48170970000000002</v>
+      </c>
+      <c r="P53">
+        <v>0.73760400000000004</v>
+      </c>
+      <c r="Q53">
+        <v>1.0102461</v>
+      </c>
+      <c r="R53">
+        <v>1.1816268999999999</v>
+      </c>
+      <c r="S53">
+        <v>1.0102461</v>
+      </c>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.99560910000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.73988149999999997</v>
+      </c>
+      <c r="I54">
+        <v>0.50553959999999998</v>
+      </c>
+      <c r="J54">
+        <v>0.73988149999999997</v>
+      </c>
+      <c r="K54">
+        <v>1.0042404</v>
+      </c>
+      <c r="L54">
+        <v>1.1092280999999999</v>
+      </c>
+      <c r="M54">
+        <v>1.1301374</v>
+      </c>
+      <c r="N54">
+        <v>0.96661799999999998</v>
+      </c>
+      <c r="O54">
+        <v>0.69428330000000005</v>
+      </c>
+      <c r="P54">
+        <v>0.96661799999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0.95460650000000002</v>
+      </c>
+      <c r="R54">
+        <v>1.2202248</v>
+      </c>
+      <c r="S54">
+        <v>1.0607903999999999</v>
+      </c>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1.1149789000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.94182869999999996</v>
+      </c>
+      <c r="I55">
+        <v>0.46915810000000002</v>
+      </c>
+      <c r="J55">
+        <v>0.94182869999999996</v>
+      </c>
+      <c r="K55">
+        <v>1.2043109999999999</v>
+      </c>
+      <c r="L55">
+        <v>1.1254578</v>
+      </c>
+      <c r="M55">
+        <v>1.2043109999999999</v>
+      </c>
+      <c r="N55">
+        <v>1.1725047</v>
+      </c>
+      <c r="O55">
+        <v>0.64925840000000001</v>
+      </c>
+      <c r="P55">
+        <v>1.1725047</v>
+      </c>
+      <c r="Q55">
+        <v>1.0987629000000001</v>
+      </c>
+      <c r="R55">
+        <v>1.2960433</v>
+      </c>
+      <c r="S55">
+        <v>1.0987629000000001</v>
+      </c>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1.1485475999999999</v>
+      </c>
+      <c r="H56">
+        <v>1.0461224</v>
+      </c>
+      <c r="I56">
+        <v>0.57928829999999998</v>
+      </c>
+      <c r="J56">
+        <v>0.82353690000000002</v>
+      </c>
+      <c r="K56">
+        <v>1.2149559000000001</v>
+      </c>
+      <c r="L56">
+        <v>1.1899128999999999</v>
+      </c>
+      <c r="M56">
+        <v>1.2149559000000001</v>
+      </c>
+      <c r="N56">
+        <v>1.2590908000000001</v>
+      </c>
+      <c r="O56">
+        <v>0.78562509999999997</v>
+      </c>
+      <c r="P56">
+        <v>1.0598540999999999</v>
+      </c>
+      <c r="Q56">
+        <v>1.0922189</v>
+      </c>
+      <c r="R56">
+        <v>1.3195479999999999</v>
+      </c>
+      <c r="S56">
+        <v>1.0922189</v>
+      </c>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" t="s">
+        <v>9</v>
+      </c>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E59" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1.9439279999999999E-3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4.9645620000000001E-4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2.736029E-4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2.736029E-4</v>
+      </c>
+      <c r="K59" s="2">
+        <v>2.180707E-3</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1.4737521000000001E-3</v>
+      </c>
+      <c r="M59">
+        <v>2.180707E-3</v>
+      </c>
+      <c r="N59">
+        <v>7.3547499999999997E-4</v>
+      </c>
+      <c r="O59">
+        <v>4.0507549999999997E-4</v>
+      </c>
+      <c r="P59">
+        <v>4.0507549999999997E-4</v>
+      </c>
+      <c r="Q59">
+        <v>2.4587020000000001E-3</v>
+      </c>
+      <c r="R59">
+        <v>2.4942129999999999E-3</v>
+      </c>
+      <c r="S59" s="2">
+        <v>2.4587020000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2.0228830000000001E-3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5.5851670000000003E-4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1.6861989999999999E-4</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3.1116809999999999E-4</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2.1613779999999998E-3</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1.5283816999999999E-3</v>
+      </c>
+      <c r="M60">
+        <v>1.528382E-3</v>
+      </c>
+      <c r="N60">
+        <v>8.392896E-4</v>
+      </c>
+      <c r="O60">
+        <v>2.497175E-4</v>
+      </c>
+      <c r="P60">
+        <v>4.5862190000000002E-4</v>
+      </c>
+      <c r="Q60">
+        <v>2.31489E-3</v>
+      </c>
+      <c r="R60">
+        <v>2.5674040000000001E-3</v>
+      </c>
+      <c r="S60" s="2">
+        <v>2.5674040000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E61" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2.06514E-3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3.5286470000000001E-4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.9181729999999999E-4</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3.5286470000000001E-4</v>
+      </c>
+      <c r="K61" s="2">
+        <v>2.1811819999999998E-3</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.0317766999999999E-3</v>
+      </c>
+      <c r="M61">
+        <v>1.613427E-3</v>
+      </c>
+      <c r="N61">
+        <v>5.2566470000000004E-4</v>
+      </c>
+      <c r="O61">
+        <v>2.8281660000000001E-4</v>
+      </c>
+      <c r="P61">
+        <v>5.2566470000000004E-4</v>
+      </c>
+      <c r="Q61">
+        <v>2.2453920000000001E-3</v>
+      </c>
+      <c r="R61">
+        <v>1.687488E-3</v>
+      </c>
+      <c r="S61" s="2">
+        <v>2.716483E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2.081388E-3</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3.5264150000000001E-4</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.9357559999999999E-4</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3.5264150000000001E-4</v>
+      </c>
+      <c r="K62" s="2">
+        <v>2.069497E-3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1.0365560999999999E-3</v>
+      </c>
+      <c r="M62">
+        <v>1.490728E-3</v>
+      </c>
+      <c r="N62">
+        <v>5.2783750000000003E-4</v>
+      </c>
+      <c r="O62">
+        <v>2.8682680000000001E-4</v>
+      </c>
+      <c r="P62">
+        <v>5.2783750000000003E-4</v>
+      </c>
+      <c r="Q62">
+        <v>2.3418760000000001E-3</v>
+      </c>
+      <c r="R62">
+        <v>1.678464E-3</v>
+      </c>
+      <c r="S62" s="2">
+        <v>2.5274490000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2.0758030000000002E-3</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4.5987939999999998E-4</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1.4064270000000001E-4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2.5845799999999998E-4</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1.72408E-3</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.2002542000000001E-3</v>
+      </c>
+      <c r="M63">
+        <v>1.72408E-3</v>
+      </c>
+      <c r="N63">
+        <v>6.925589E-4</v>
+      </c>
+      <c r="O63">
+        <v>2.0796629999999999E-4</v>
+      </c>
+      <c r="P63">
+        <v>3.8482769999999999E-4</v>
+      </c>
+      <c r="Q63">
+        <v>2.6269290000000001E-3</v>
+      </c>
+      <c r="R63">
+        <v>2.0323559999999999E-3</v>
+      </c>
+      <c r="S63" s="2">
+        <v>2.6269290000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.9966440000000001E-3</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.9387249999999998E-4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2.2015239999999999E-4</v>
+      </c>
+      <c r="J64" s="2">
+        <v>3.9387249999999998E-4</v>
+      </c>
+      <c r="K64" s="2">
+        <v>2.0371389999999999E-3</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1.0462722000000001E-3</v>
+      </c>
+      <c r="M64">
+        <v>1.4959890000000001E-3</v>
+      </c>
+      <c r="N64">
+        <v>5.9219130000000004E-4</v>
+      </c>
+      <c r="O64">
+        <v>3.2710969999999998E-4</v>
+      </c>
+      <c r="P64">
+        <v>5.9219130000000004E-4</v>
+      </c>
+      <c r="Q64">
+        <v>2.2362520000000002E-3</v>
+      </c>
+      <c r="R64">
+        <v>1.70925E-3</v>
+      </c>
+      <c r="S64" s="6">
+        <v>2.5182440000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1.78283E-3</v>
+      </c>
+      <c r="H65">
+        <v>4.2238870000000002E-4</v>
+      </c>
+      <c r="I65">
+        <v>1.365925E-4</v>
+      </c>
+      <c r="J65">
+        <v>4.2238870000000002E-4</v>
+      </c>
+      <c r="K65">
+        <v>1.407431E-3</v>
+      </c>
+      <c r="L65">
+        <v>6.7878260000000005E-4</v>
+      </c>
+      <c r="M65">
+        <v>1.407431E-3</v>
+      </c>
+      <c r="N65">
+        <v>6.4477740000000005E-4</v>
+      </c>
+      <c r="O65">
+        <v>2.0237210000000001E-4</v>
+      </c>
+      <c r="P65">
+        <v>6.4477740000000005E-4</v>
+      </c>
+      <c r="Q65">
+        <v>2.5770440000000001E-3</v>
+      </c>
+      <c r="R65">
+        <v>1.0546049999999999E-3</v>
+      </c>
+      <c r="S65" s="6">
+        <v>2.5770440000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1.7148140000000001E-3</v>
+      </c>
+      <c r="H66">
+        <v>4.4538409999999998E-4</v>
+      </c>
+      <c r="I66">
+        <v>1.5013050000000001E-4</v>
+      </c>
+      <c r="J66">
+        <v>2.6480470000000002E-4</v>
+      </c>
+      <c r="K66">
+        <v>1.4553000000000001E-3</v>
+      </c>
+      <c r="L66">
+        <v>6.8855149999999998E-4</v>
+      </c>
+      <c r="M66">
+        <v>1.4553000000000001E-3</v>
+      </c>
+      <c r="N66">
+        <v>6.8617479999999995E-4</v>
+      </c>
+      <c r="O66">
+        <v>2.2331280000000001E-4</v>
+      </c>
+      <c r="P66">
+        <v>4.0194779999999999E-4</v>
+      </c>
+      <c r="Q66">
+        <v>2.6280909999999999E-3</v>
+      </c>
+      <c r="R66">
+        <v>1.0894349999999999E-3</v>
+      </c>
+      <c r="S66" s="6">
+        <v>2.6280909999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U68" s="6"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+      <c r="P72" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>4</v>
+      </c>
+      <c r="P73" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>7</v>
+      </c>
+      <c r="R73" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73" t="s">
+        <v>9</v>
+      </c>
+      <c r="U73" s="6"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="E74" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.73989550000000004</v>
+      </c>
+      <c r="H74">
+        <v>0.68245540000000005</v>
+      </c>
+      <c r="I74">
+        <v>0.81064369999999997</v>
+      </c>
+      <c r="J74">
+        <v>0.81064369999999997</v>
+      </c>
+      <c r="K74">
+        <v>0.57414220000000005</v>
+      </c>
+      <c r="L74">
+        <v>0.4678756</v>
+      </c>
+      <c r="M74">
+        <v>0.57414220000000005</v>
+      </c>
+      <c r="N74">
+        <v>0.56118239999999997</v>
+      </c>
+      <c r="O74">
+        <v>0.72704299999999999</v>
+      </c>
+      <c r="P74">
+        <v>0.72704299999999999</v>
+      </c>
+      <c r="Q74">
+        <v>0.64072030000000002</v>
+      </c>
+      <c r="R74">
+        <v>0.52103770000000005</v>
+      </c>
+      <c r="S74">
+        <v>0.64072030000000002</v>
+      </c>
+      <c r="U74" s="6"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E75" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.69519580000000003</v>
+      </c>
+      <c r="H75">
+        <v>0.59796530000000003</v>
+      </c>
+      <c r="I75">
+        <v>0.85467490000000002</v>
+      </c>
+      <c r="J75">
+        <v>0.7464172</v>
+      </c>
+      <c r="K75">
+        <v>0.58584239999999999</v>
+      </c>
+      <c r="L75">
+        <v>0.4378186</v>
+      </c>
+      <c r="M75">
+        <v>0.4378186</v>
+      </c>
+      <c r="N75">
+        <v>0.46283619999999998</v>
+      </c>
+      <c r="O75">
+        <v>0.78838470000000005</v>
+      </c>
+      <c r="P75">
+        <v>0.64024110000000001</v>
+      </c>
+      <c r="Q75">
+        <v>0.64080130000000002</v>
+      </c>
+      <c r="R75">
+        <v>0.53510720000000001</v>
+      </c>
+      <c r="S75">
+        <v>0.53510720000000001</v>
+      </c>
+      <c r="U75" s="6"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E76" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.67285070000000002</v>
+      </c>
+      <c r="H76">
+        <v>0.67194330000000002</v>
+      </c>
+      <c r="I76">
+        <v>0.80375039999999998</v>
+      </c>
+      <c r="J76">
+        <v>0.67194330000000002</v>
+      </c>
+      <c r="K76">
+        <v>0.58926089999999998</v>
+      </c>
+      <c r="L76">
+        <v>0.39190950000000002</v>
+      </c>
+      <c r="M76">
+        <v>0.43324380000000001</v>
+      </c>
+      <c r="N76">
+        <v>0.5438731</v>
+      </c>
+      <c r="O76">
+        <v>0.71744580000000002</v>
+      </c>
+      <c r="P76">
+        <v>0.5438731</v>
+      </c>
+      <c r="Q76">
+        <v>0.64324970000000004</v>
+      </c>
+      <c r="R76">
+        <v>0.38288840000000002</v>
+      </c>
+      <c r="S76">
+        <v>0.57117850000000003</v>
+      </c>
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E77" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.61559160000000002</v>
+      </c>
+      <c r="H77">
+        <v>0.61626139999999996</v>
+      </c>
+      <c r="I77">
+        <v>0.76359109999999997</v>
+      </c>
+      <c r="J77">
+        <v>0.61626139999999996</v>
+      </c>
+      <c r="K77">
+        <v>0.54117769999999998</v>
+      </c>
+      <c r="L77">
+        <v>0.3432557</v>
+      </c>
+      <c r="M77">
+        <v>0.38839319999999999</v>
+      </c>
+      <c r="N77">
+        <v>0.47356579999999998</v>
+      </c>
+      <c r="O77">
+        <v>0.66269040000000001</v>
+      </c>
+      <c r="P77">
+        <v>0.47356579999999998</v>
+      </c>
+      <c r="Q77">
+        <v>0.61963610000000002</v>
+      </c>
+      <c r="R77">
+        <v>0.35583749999999997</v>
+      </c>
+      <c r="S77">
+        <v>0.52922840000000004</v>
+      </c>
+      <c r="U77" s="6"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E78" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.58854229999999996</v>
+      </c>
+      <c r="H78">
+        <v>0.501301</v>
+      </c>
+      <c r="I78">
+        <v>0.80325619999999998</v>
+      </c>
+      <c r="J78">
+        <v>0.67062049999999995</v>
+      </c>
+      <c r="K78">
+        <v>0.43363849999999998</v>
+      </c>
+      <c r="L78">
+        <v>0.32806819999999998</v>
+      </c>
+      <c r="M78">
+        <v>0.43363849999999998</v>
+      </c>
+      <c r="N78">
+        <v>0.34610180000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.71690279999999995</v>
+      </c>
+      <c r="P78">
+        <v>0.53991060000000002</v>
+      </c>
+      <c r="Q78">
+        <v>0.57954110000000003</v>
+      </c>
+      <c r="R78">
+        <v>0.42252089999999998</v>
+      </c>
+      <c r="S78">
+        <v>0.57954110000000003</v>
+      </c>
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E79" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.56197399999999997</v>
+      </c>
+      <c r="H79">
+        <v>0.52882059999999997</v>
+      </c>
+      <c r="I79">
+        <v>0.69517030000000002</v>
+      </c>
+      <c r="J79">
+        <v>0.52882059999999997</v>
+      </c>
+      <c r="K79">
+        <v>0.54123279999999996</v>
+      </c>
+      <c r="L79">
+        <v>0.31016529999999998</v>
+      </c>
+      <c r="M79">
+        <v>0.39013569999999997</v>
+      </c>
+      <c r="N79">
+        <v>0.37161880000000003</v>
+      </c>
+      <c r="O79">
+        <v>0.57142490000000001</v>
+      </c>
+      <c r="P79">
+        <v>0.37161880000000003</v>
+      </c>
+      <c r="Q79">
+        <v>0.61149480000000001</v>
+      </c>
+      <c r="R79">
+        <v>0.37337720000000002</v>
+      </c>
+      <c r="S79">
+        <v>0.54927409999999999</v>
+      </c>
+      <c r="U79" s="6"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E80" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.48793300000000001</v>
+      </c>
+      <c r="H80">
+        <v>0.37885419999999997</v>
+      </c>
+      <c r="I80">
+        <v>0.72066030000000003</v>
+      </c>
+      <c r="J80">
+        <v>0.37885419999999997</v>
+      </c>
+      <c r="K80">
+        <v>0.35072379999999997</v>
+      </c>
+      <c r="L80">
+        <v>0.25700309999999998</v>
+      </c>
+      <c r="M80">
+        <v>0.35072379999999997</v>
+      </c>
+      <c r="N80">
+        <v>0.224803</v>
+      </c>
+      <c r="O80">
+        <v>0.60434189999999999</v>
+      </c>
+      <c r="P80">
+        <v>0.224803</v>
+      </c>
+      <c r="Q80">
+        <v>0.52004839999999997</v>
+      </c>
+      <c r="R80">
+        <v>0.23323730000000001</v>
+      </c>
+      <c r="S80">
+        <v>0.52004839999999997</v>
+      </c>
+      <c r="U80" s="6"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E81" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.45648100000000003</v>
+      </c>
+      <c r="H81">
+        <v>0.30027229999999999</v>
+      </c>
+      <c r="I81">
+        <v>0.64574370000000003</v>
+      </c>
+      <c r="J81">
+        <v>0.46781709999999999</v>
+      </c>
+      <c r="K81">
+        <v>0.35603950000000001</v>
+      </c>
+      <c r="L81">
+        <v>0.21997929999999999</v>
+      </c>
+      <c r="M81">
+        <v>0.35603950000000001</v>
+      </c>
+      <c r="N81">
+        <v>0.18045230000000001</v>
+      </c>
+      <c r="O81">
+        <v>0.50597289999999995</v>
+      </c>
+      <c r="P81">
+        <v>0.29581669999999999</v>
+      </c>
+      <c r="Q81">
+        <v>0.52870930000000005</v>
+      </c>
+      <c r="R81">
+        <v>0.2424943</v>
+      </c>
+      <c r="S81">
+        <v>0.52870930000000005</v>
+      </c>
+      <c r="U81" s="6"/>
+    </row>
+    <row r="82" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="P82" t="s">
+        <v>16</v>
+      </c>
+      <c r="U82" s="6"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>7</v>
+      </c>
+      <c r="R83" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E84" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2.2110260000000001E-3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3.3728110000000002E-4</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1.8279869999999999E-4</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1.8279869999999999E-4</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1.1680136000000001E-3</v>
+      </c>
+      <c r="L84" s="2">
+        <v>7.150724E-4</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1.1680136000000001E-3</v>
+      </c>
+      <c r="N84">
+        <v>4.7380540000000002E-4</v>
+      </c>
+      <c r="O84">
+        <v>2.6828959999999999E-4</v>
+      </c>
+      <c r="P84">
+        <v>2.6828959999999999E-4</v>
+      </c>
+      <c r="Q84">
+        <v>1.9066459999999999E-3</v>
+      </c>
+      <c r="R84">
+        <v>1.1069552E-3</v>
+      </c>
+      <c r="S84">
+        <v>1.9066459999999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E85" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2.1008519999999998E-3</v>
+      </c>
+      <c r="H85" s="2">
+        <v>3.7933219999999998E-4</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1.101054E-4</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2.104098E-4</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1.3454382999999999E-3</v>
+      </c>
+      <c r="L85" s="2">
+        <v>7.4533970000000005E-4</v>
+      </c>
+      <c r="M85" s="2">
+        <v>7.4533970000000005E-4</v>
+      </c>
+      <c r="N85">
+        <v>5.1778139999999996E-4</v>
+      </c>
+      <c r="O85">
+        <v>1.635401E-4</v>
+      </c>
+      <c r="P85">
+        <v>3.077849E-4</v>
+      </c>
+      <c r="Q85">
+        <v>1.9866929999999999E-3</v>
+      </c>
+      <c r="R85">
+        <v>1.3064687999999999E-3</v>
+      </c>
+      <c r="S85">
+        <v>1.306469E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E86" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2.045018E-3</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.4694749999999997E-4</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.3112449999999999E-4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2.4694749999999997E-4</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.4961429999999999E-3</v>
+      </c>
+      <c r="L86" s="2">
+        <v>5.7870030000000002E-4</v>
+      </c>
+      <c r="M86" s="2">
+        <v>8.2174410000000005E-4</v>
+      </c>
+      <c r="N86">
+        <v>3.5728719999999998E-4</v>
+      </c>
+      <c r="O86">
+        <v>1.9443140000000001E-4</v>
+      </c>
+      <c r="P86">
+        <v>3.5728719999999998E-4</v>
+      </c>
+      <c r="Q86">
+        <v>2.1190580000000001E-3</v>
+      </c>
+      <c r="R86">
+        <v>8.0703890000000003E-4</v>
+      </c>
+      <c r="S86">
+        <v>1.553055E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E87" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.851793E-3</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2.4970990000000001E-4</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1.3380010000000001E-4</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2.4970990000000001E-4</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.4522406E-3</v>
+      </c>
+      <c r="L87" s="2">
+        <v>5.6233270000000004E-4</v>
+      </c>
+      <c r="M87" s="2">
+        <v>7.8776080000000004E-4</v>
+      </c>
+      <c r="N87">
+        <v>3.5997040000000001E-4</v>
+      </c>
+      <c r="O87">
+        <v>1.984233E-4</v>
+      </c>
+      <c r="P87">
+        <v>3.5997040000000001E-4</v>
+      </c>
+      <c r="Q87">
+        <v>2.089821E-3</v>
+      </c>
+      <c r="R87">
+        <v>7.8873129999999997E-4</v>
+      </c>
+      <c r="S87">
+        <v>1.438038E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E88" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1.7091809999999999E-3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3.2921810000000003E-4</v>
+      </c>
+      <c r="I88" s="2">
+        <v>9.7271660000000003E-5</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1.8470030000000001E-4</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1.0196345999999999E-3</v>
+      </c>
+      <c r="L88" s="2">
+        <v>6.1914040000000004E-4</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1.0196345999999999E-3</v>
+      </c>
+      <c r="N88">
+        <v>4.4784250000000001E-4</v>
+      </c>
+      <c r="O88">
+        <v>1.4495379999999999E-4</v>
+      </c>
+      <c r="P88">
+        <v>2.7161209999999999E-4</v>
+      </c>
+      <c r="Q88">
+        <v>1.8010459999999999E-3</v>
+      </c>
+      <c r="R88">
+        <v>1.0401219000000001E-3</v>
+      </c>
+      <c r="S88">
+        <v>1.8010459999999999E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E89" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1.5677460000000001E-3</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2.843985E-4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1.5753370000000001E-4</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2.843985E-4</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.4095443000000001E-3</v>
+      </c>
+      <c r="L89" s="2">
+        <v>5.6352989999999999E-4</v>
+      </c>
+      <c r="M89" s="2">
+        <v>8.832105E-4</v>
+      </c>
+      <c r="N89">
+        <v>3.9688050000000002E-4</v>
+      </c>
+      <c r="O89">
+        <v>2.328082E-4</v>
+      </c>
+      <c r="P89">
+        <v>3.9688050000000002E-4</v>
+      </c>
+      <c r="Q89">
+        <v>2.1045949999999999E-3</v>
+      </c>
+      <c r="R89">
+        <v>9.2591080000000001E-4</v>
+      </c>
+      <c r="S89">
+        <v>1.513454E-3</v>
+      </c>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E90" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1.3428419999999999E-3</v>
+      </c>
+      <c r="H90">
+        <v>2.9841809999999998E-4</v>
+      </c>
+      <c r="I90" s="2">
+        <v>9.4325240000000006E-5</v>
+      </c>
+      <c r="J90">
+        <v>2.9841809999999998E-4</v>
+      </c>
+      <c r="K90">
+        <v>7.9898779999999997E-4</v>
+      </c>
+      <c r="L90">
+        <v>4.2086419999999997E-4</v>
+      </c>
+      <c r="M90">
+        <v>7.9898779999999997E-4</v>
+      </c>
+      <c r="N90">
+        <v>3.7794370000000002E-4</v>
+      </c>
+      <c r="O90">
+        <v>1.3979239999999999E-4</v>
+      </c>
+      <c r="P90">
+        <v>3.7794370000000002E-4</v>
+      </c>
+      <c r="Q90">
+        <v>1.385311E-3</v>
+      </c>
+      <c r="R90">
+        <v>5.3323230000000001E-4</v>
+      </c>
+      <c r="S90">
+        <v>1.385311E-3</v>
+      </c>
+      <c r="T90" s="2"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E91" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1.2388150000000001E-3</v>
+      </c>
+      <c r="H91">
+        <v>3.138743E-4</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1.064606E-4</v>
+      </c>
+      <c r="J91">
+        <v>1.9158820000000001E-4</v>
+      </c>
+      <c r="K91">
+        <v>8.3290549999999995E-4</v>
+      </c>
+      <c r="L91">
+        <v>4.139201E-4</v>
+      </c>
+      <c r="M91">
+        <v>8.3290549999999995E-4</v>
+      </c>
+      <c r="N91">
+        <v>3.8393969999999999E-4</v>
+      </c>
+      <c r="O91">
+        <v>1.5826809999999999E-4</v>
+      </c>
+      <c r="P91">
+        <v>2.7539870000000002E-4</v>
+      </c>
+      <c r="Q91">
+        <v>1.446644E-3</v>
+      </c>
+      <c r="R91">
+        <v>5.6871500000000002E-4</v>
+      </c>
+      <c r="S91">
+        <v>1.446644E-3</v>
+      </c>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U93" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V9:V14"/>
+    <mergeCell ref="V15:V20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
